--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="316">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1350,8 +1350,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -1408,12 +1408,11 @@
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">IF(F2="",E2,G2)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"account","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"newOwner","type":"address"}],"name":"OwnerChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DELEGATION_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"DOMAIN_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"abolishSeizing","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_user","type":"address"}],"name":"addToWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"closeTheGates","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"delegatee","type":"address"}],"name":"delegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"delegatee","type":"address"},{"internalType":"uint256","name":"nonce","type":"uint256"},{"internalType":"uint256","name":"expiry","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"delegateBySig","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"openTheGates","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_user","type":"address"}],"name":"removeFromWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizable","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"seize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner_","type":"address"}],"name":"setOwner","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"tradable","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -1429,12 +1428,11 @@
       <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="str">
-        <f aca="false">IF(F3="",E3,G3)</f>
-        <v>[{"inputs":[{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"minter","type":"address"}],"name":"AddMinter","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"newOperator","type":"address"}],"name":"ChangeOperator","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"minter","type":"address"}],"name":"RemoveMinter","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"minter_","type":"address"}],"name":"addMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"claimOperator","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"minters","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"operator","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingOperator","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"minter_","type":"address"}],"name":"removeMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newOperator_","type":"address"}],"name":"setPendingOperator","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>17</v>
       </c>
@@ -1450,12 +1448,11 @@
       <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="0" t="str">
-        <f aca="false">IF(F4="",E4,G4)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"_singleton","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"stateMutability":"payable","type":"fallback"}]</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>22</v>
       </c>
@@ -1471,12 +1468,11 @@
       <c r="E5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="0" t="str">
-        <f aca="false">IF(F5="",E5,G5)</f>
-        <v>[{"inputs":[{"internalType":"contract CErc20","name":"ctoken_","type":"address"},{"internalType":"address","name":"gov_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"constant":true,"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"contraction","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"ctoken","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"resign","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"takeProfit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
@@ -1492,12 +1488,11 @@
       <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="0" t="str">
-        <f aca="false">IF(F6="",E6,G6)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingImplementation","type":"address"}],"name":"NewPendingImplementation","type":"event"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_acceptImplementation","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingImplementation","type":"address"}],"name":"_setPendingImplementation","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingComptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
@@ -1513,12 +1508,11 @@
       <c r="E7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="0" t="str">
-        <f aca="false">IF(F7="",E7,G7)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>35</v>
       </c>
@@ -1534,12 +1528,11 @@
       <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="0" t="str">
-        <f aca="false">IF(F8="",E8,G8)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>38</v>
       </c>
@@ -1555,12 +1548,11 @@
       <c r="E9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="0" t="str">
-        <f aca="false">IF(F9="",E9,G9)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>41</v>
       </c>
@@ -1576,12 +1568,11 @@
       <c r="E10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="0" t="str">
-        <f aca="false">IF(F10="",E10,G10)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"},{"internalType":"contract IDelegateRegistry","name":"delegateRegistry_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"delegate_","type":"address"}],"name":"delegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"delegateRegistry","outputs":[{"internalType":"contract IDelegateRegistry","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>45</v>
       </c>
@@ -1597,12 +1588,11 @@
       <c r="E11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="0" t="str">
-        <f aca="false">IF(F11="",E11,G11)</f>
-        <v>[{"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"contract CToken","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[],"name":"mint","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"repayBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"}],"name":"repayBorrowBehalf","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>49</v>
       </c>
@@ -1618,12 +1608,11 @@
       <c r="E12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="0" t="str">
-        <f aca="false">IF(F12="",E12,G12)</f>
-        <v>[{"inputs":[{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"minter","type":"address"}],"name":"AddMinter","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"newOperator","type":"address"}],"name":"ChangeOperator","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"minter","type":"address"}],"name":"RemoveMinter","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"minter_","type":"address"}],"name":"addMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"claimOperator","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"minters","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"operator","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingOperator","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"minter_","type":"address"}],"name":"removeMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newOperator_","type":"address"}],"name":"setPendingOperator","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>52</v>
       </c>
@@ -1639,12 +1628,11 @@
       <c r="E13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="0" t="str">
-        <f aca="false">IF(F13="",E13,G13)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>56</v>
       </c>
@@ -1660,12 +1648,11 @@
       <c r="E14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="0" t="str">
-        <f aca="false">IF(F14="",E14,G14)</f>
-        <v>[{"name":"Transfer","inputs":[{"name":"sender","type":"address","indexed":true},{"name":"receiver","type":"address","indexed":true},{"name":"value","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"Approval","inputs":[{"name":"owner","type":"address","indexed":true},{"name":"spender","type":"address","indexed":true},{"name":"value","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"TokenExchange","inputs":[{"name":"buyer","type":"address","indexed":true},{"name":"sold_id","type":"int128","indexed":false},{"name":"tokens_sold","type":"uint256","indexed":false},{"name":"bought_id","type":"int128","indexed":false},{"name":"tokens_bought","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"TokenExchangeUnderlying","inputs":[{"name":"buyer","type":"address","indexed":true},{"name":"sold_id","type":"int128","indexed":false},{"name":"tokens_sold","type":"uint256","indexed":false},{"name":"bought_id","type":"int128","indexed":false},{"name":"tokens_bought","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"AddLiquidity","inputs":[{"name":"provider","type":"address","indexed":true},{"name":"token_amounts","type":"uint256[2]","indexed":false},{"name":"fees","type":"uint256[2]","indexed":false},{"name":"invariant","type":"uint256","indexed":false},{"name":"token_supply","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"RemoveLiquidity","inputs":[{"name":"provider","type":"address","indexed":true},{"name":"token_amounts","type":"uint256[2]","indexed":false},{"name":"fees","type":"uint256[2]","indexed":false},{"name":"token_supply","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"RemoveLiquidityOne","inputs":[{"name":"provider","type":"address","indexed":true},{"name":"token_amount","type":"uint256","indexed":false},{"name":"coin_amount","type":"uint256","indexed":false},{"name":"token_supply","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"RemoveLiquidityImbalance","inputs":[{"name":"provider","type":"address","indexed":true},{"name":"token_amounts","type":"uint256[2]","indexed":false},{"name":"fees","type":"uint256[2]","indexed":false},{"name":"invariant","type":"uint256","indexed":false},{"name":"token_supply","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"RampA","inputs":[{"name":"old_A","type":"uint256","indexed":false},{"name":"new_A","type":"uint256","indexed":false},{"name":"initial_time","type":"uint256","indexed":false},{"name":"future_time","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"name":"StopRampA","inputs":[{"name":"A","type":"uint256","indexed":false},{"name":"t","type":"uint256","indexed":false}],"anonymous":false,"type":"event"},{"stateMutability":"nonpayable","type":"constructor","inputs":[],"outputs":[]},{"stateMutability":"nonpayable","type":"function","name":"initialize","inputs":[{"name":"_name","type":"string"},{"name":"_symbol","type":"string"},{"name":"_coin","type":"address"},{"name":"_rate_multiplier","type":"uint256"},{"name":"_A","type":"uint256"},{"name":"_fee","type":"uint256"}],"outputs":[],"gas":450772},{"stateMutability":"view","type":"function","name":"decimals","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":318},{"stateMutability":"nonpayable","type":"function","name":"transfer","inputs":[{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"outputs":[{"name":"","type":"bool"}],"gas":77977},{"stateMutability":"nonpayable","type":"function","name":"transferFrom","inputs":[{"name":"_from","type":"address"},{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"outputs":[{"name":"","type":"bool"}],"gas":115912},{"stateMutability":"nonpayable","type":"function","name":"approve","inputs":[{"name":"_spender","type":"address"},{"name":"_value","type":"uint256"}],"outputs":[{"name":"","type":"bool"}],"gas":37851},{"stateMutability":"view","type":"function","name":"admin_fee","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":438},{"stateMutability":"view","type":"function","name":"A","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":10704},{"stateMutability":"view","type":"function","name":"A_precise","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":10666},{"stateMutability":"view","type":"function","name":"get_virtual_price","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":1023280},{"stateMutability":"view","type":"function","name":"calc_token_amount","inputs":[{"name":"_amounts","type":"uint256[2]"},{"name":"_is_deposit","type":"bool"}],"outputs":[{"name":"","type":"uint256"}],"gas":4029742},{"stateMutability":"nonpayable","type":"function","name":"add_liquidity","inputs":[{"name":"_amounts","type":"uint256[2]"},{"name":"_min_mint_amount","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"add_liquidity","inputs":[{"name":"_amounts","type":"uint256[2]"},{"name":"_min_mint_amount","type":"uint256"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"view","type":"function","name":"get_dy","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"dx","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}],"gas":2466478},{"stateMutability":"view","type":"function","name":"get_dy_underlying","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"dx","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}],"gas":2475029},{"stateMutability":"nonpayable","type":"function","name":"exchange","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"_dx","type":"uint256"},{"name":"_min_dy","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"exchange","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"_dx","type":"uint256"},{"name":"_min_dy","type":"uint256"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"exchange_underlying","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"_dx","type":"uint256"},{"name":"_min_dy","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"exchange_underlying","inputs":[{"name":"i","type":"int128"},{"name":"j","type":"int128"},{"name":"_dx","type":"uint256"},{"name":"_min_dy","type":"uint256"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity","inputs":[{"name":"_burn_amount","type":"uint256"},{"name":"_min_amounts","type":"uint256[2]"}],"outputs":[{"name":"","type":"uint256[2]"}]},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity","inputs":[{"name":"_burn_amount","type":"uint256"},{"name":"_min_amounts","type":"uint256[2]"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256[2]"}]},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity_imbalance","inputs":[{"name":"_amounts","type":"uint256[2]"},{"name":"_max_burn_amount","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity_imbalance","inputs":[{"name":"_amounts","type":"uint256[2]"},{"name":"_max_burn_amount","type":"uint256"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"view","type":"function","name":"calc_withdraw_one_coin","inputs":[{"name":"_burn_amount","type":"uint256"},{"name":"i","type":"int128"}],"outputs":[{"name":"","type":"uint256"}],"gas":1130},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity_one_coin","inputs":[{"name":"_burn_amount","type":"uint256"},{"name":"i","type":"int128"},{"name":"_min_received","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"remove_liquidity_one_coin","inputs":[{"name":"_burn_amount","type":"uint256"},{"name":"i","type":"int128"},{"name":"_min_received","type":"uint256"},{"name":"_receiver","type":"address"}],"outputs":[{"name":"","type":"uint256"}]},{"stateMutability":"nonpayable","type":"function","name":"ramp_A","inputs":[{"name":"_future_A","type":"uint256"},{"name":"_future_time","type":"uint256"}],"outputs":[],"gas":162101},{"stateMutability":"nonpayable","type":"function","name":"stop_ramp_A","inputs":[],"outputs":[],"gas":157565},{"stateMutability":"view","type":"function","name":"admin_balances","inputs":[{"name":"i","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}],"gas":7770},{"stateMutability":"nonpayable","type":"function","name":"withdraw_admin_fees","inputs":[],"outputs":[],"gas":40657},{"stateMutability":"view","type":"function","name":"coins","inputs":[{"name":"arg0","type":"uint256"}],"outputs":[{"name":"","type":"address"}],"gas":3123},{"stateMutability":"view","type":"function","name":"balances","inputs":[{"name":"arg0","type":"uint256"}],"outputs":[{"name":"","type":"uint256"}],"gas":3153},{"stateMutability":"view","type":"function","name":"fee","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3138},{"stateMutability":"view","type":"function","name":"initial_A","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3168},{"stateMutability":"view","type":"function","name":"future_A","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3198},{"stateMutability":"view","type":"function","name":"initial_A_time","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3228},{"stateMutability":"view","type":"function","name":"future_A_time","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3258},{"stateMutability":"view","type":"function","name":"name","inputs":[],"outputs":[{"name":"","type":"string"}],"gas":13518},{"stateMutability":"view","type":"function","name":"symbol","inputs":[],"outputs":[{"name":"","type":"string"}],"gas":11271},{"stateMutability":"view","type":"function","name":"balanceOf","inputs":[{"name":"arg0","type":"address"}],"outputs":[{"name":"","type":"uint256"}],"gas":3563},{"stateMutability":"view","type":"function","name":"allowance","inputs":[{"name":"arg0","type":"address"},{"name":"arg1","type":"address"}],"outputs":[{"name":"","type":"uint256"}],"gas":3808},{"stateMutability":"view","type":"function","name":"totalSupply","inputs":[],"outputs":[{"name":"","type":"uint256"}],"gas":3408}]</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>61</v>
       </c>
@@ -1681,12 +1668,11 @@
       <c r="E15" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="0" t="str">
-        <f aca="false">IF(F15="",E15,G15)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"_operator","type":"address"},{"internalType":"address","name":"_lptoken","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_from","type":"address"},{"internalType":"uint256","name":"_amount","type":"uint256"}],"name":"burn","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_to","type":"address"},{"internalType":"uint256","name":"_amount","type":"uint256"}],"name":"mint","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"operator","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>65</v>
       </c>
@@ -1708,12 +1694,11 @@
       <c r="G16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="0" t="str">
-        <f aca="false">IF(F16="",E16,G16)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>71</v>
       </c>
@@ -1735,12 +1720,11 @@
       <c r="G17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="0" t="str">
-        <f aca="false">IF(F17="",E17,G17)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>74</v>
       </c>
@@ -1762,12 +1746,11 @@
       <c r="G18" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="0" t="str">
-        <f aca="false">IF(F18="",E18,G18)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>78</v>
       </c>
@@ -1789,12 +1772,11 @@
       <c r="G19" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="0" t="str">
-        <f aca="false">IF(F19="",E19,G19)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>81</v>
       </c>
@@ -1816,12 +1798,11 @@
       <c r="G20" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="0" t="str">
-        <f aca="false">IF(F20="",E20,G20)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>84</v>
       </c>
@@ -1843,12 +1824,11 @@
       <c r="G21" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="0" t="str">
-        <f aca="false">IF(F21="",E21,G21)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>87</v>
       </c>
@@ -1870,12 +1850,11 @@
       <c r="G22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="0" t="str">
-        <f aca="false">IF(F22="",E22,G22)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>90</v>
       </c>
@@ -1897,12 +1876,11 @@
       <c r="G23" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="0" t="str">
-        <f aca="false">IF(F23="",E23,G23)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>93</v>
       </c>
@@ -1924,12 +1902,11 @@
       <c r="G24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="0" t="str">
-        <f aca="false">IF(F24="",E24,G24)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>96</v>
       </c>
@@ -1951,12 +1928,11 @@
       <c r="G25" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="0" t="str">
-        <f aca="false">IF(F25="",E25,G25)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>99</v>
       </c>
@@ -1978,12 +1954,11 @@
       <c r="G26" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="0" t="str">
-        <f aca="false">IF(F26="",E26,G26)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>103</v>
       </c>
@@ -2005,12 +1980,11 @@
       <c r="G27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="0" t="str">
-        <f aca="false">IF(F27="",E27,G27)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>107</v>
       </c>
@@ -2032,12 +2006,11 @@
       <c r="G28" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="0" t="str">
-        <f aca="false">IF(F28="",E28,G28)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>110</v>
       </c>
@@ -2059,12 +2032,11 @@
       <c r="G29" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="0" t="str">
-        <f aca="false">IF(F29="",E29,G29)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>113</v>
       </c>
@@ -2086,12 +2058,11 @@
       <c r="G30" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="0" t="str">
-        <f aca="false">IF(F30="",E30,G30)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>116</v>
       </c>
@@ -2113,12 +2084,11 @@
       <c r="G31" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="0" t="str">
-        <f aca="false">IF(F31="",E31,G31)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>119</v>
       </c>
@@ -2140,12 +2110,11 @@
       <c r="G32" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="0" t="str">
-        <f aca="false">IF(F32="",E32,G32)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>122</v>
       </c>
@@ -2167,12 +2136,11 @@
       <c r="G33" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="0" t="str">
-        <f aca="false">IF(F33="",E33,G33)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>125</v>
       </c>
@@ -2194,12 +2162,11 @@
       <c r="G34" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="0" t="str">
-        <f aca="false">IF(F34="",E34,G34)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>128</v>
       </c>
@@ -2221,12 +2188,11 @@
       <c r="G35" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="0" t="str">
-        <f aca="false">IF(F35="",E35,G35)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>131</v>
       </c>
@@ -2248,12 +2214,11 @@
       <c r="G36" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="0" t="str">
-        <f aca="false">IF(F36="",E36,G36)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>134</v>
       </c>
@@ -2275,12 +2240,11 @@
       <c r="G37" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="0" t="str">
-        <f aca="false">IF(F37="",E37,G37)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>137</v>
       </c>
@@ -2296,12 +2260,11 @@
       <c r="E38" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="0" t="str">
-        <f aca="false">IF(F38="",E38,G38)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"inputs":[],"name":"DST_DOLA","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"DST_MARKET","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"GOV","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"SRC_BRIDGE","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"SRC_DOLA","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstBoard","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstContraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstExpansion","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstIsChairSuspended","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstLastSuspendTimestamp","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstSendProfitToGov","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newBoard","type":"address"}],"name":"dstSetBoard","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstSuspendChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstTransferReservesToSrc","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstUnsuspendChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcBurnReserves","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcMintReserves","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcTransferReservesToDst","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"contract ERC20","name":"token","type":"address"},{"internalType":"address","name":"to","type":"address"}],"name":"sweep","outputs":[],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>141</v>
       </c>
@@ -2317,12 +2280,11 @@
       <c r="E39" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="0" t="str">
-        <f aca="false">IF(F39="",E39,G39)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"inputs":[],"name":"DST_DOLA","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"DST_MARKET","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"GOV","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"SRC_BRIDGE","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"SRC_DOLA","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstBoard","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstContraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstExpansion","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstIsChairSuspended","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstLastSuspendTimestamp","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstSendProfitToGov","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newBoard","type":"address"}],"name":"dstSetBoard","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"dstSuspendChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"dstTransferReservesToSrc","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"dstUnsuspendChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcBurnReserves","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcMintReserves","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"srcTransferReservesToDst","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"contract ERC20","name":"token","type":"address"},{"internalType":"address","name":"to","type":"address"}],"name":"sweep","outputs":[],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>142</v>
       </c>
@@ -2344,12 +2306,11 @@
       <c r="G40" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="0" t="str">
-        <f aca="false">IF(F40="",E40,G40)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>145</v>
       </c>
@@ -2371,12 +2332,11 @@
       <c r="G41" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="0" t="str">
-        <f aca="false">IF(F41="",E41,G41)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>148</v>
       </c>
@@ -2398,12 +2358,11 @@
       <c r="G42" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="0" t="str">
-        <f aca="false">IF(F42="",E42,G42)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>151</v>
       </c>
@@ -2425,12 +2384,11 @@
       <c r="G43" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="0" t="str">
-        <f aca="false">IF(F43="",E43,G43)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>154</v>
       </c>
@@ -2446,12 +2404,11 @@
       <c r="E44" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="0" t="str">
-        <f aca="false">IF(F44="",E44,G44)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>156</v>
       </c>
@@ -2473,12 +2430,11 @@
       <c r="G45" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="0" t="str">
-        <f aca="false">IF(F45="",E45,G45)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>160</v>
       </c>
@@ -2500,12 +2456,11 @@
       <c r="G46" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="0" t="str">
-        <f aca="false">IF(F46="",E46,G46)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"rewardsDistributor","type":"address"}],"name":"AddedRewardsDistributor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enabled","type":"bool"}],"name":"AutoImplementationsToggled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketEntered","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketExited","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketListed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketUnlisted","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newBorrowCap","type":"uint256"}],"name":"NewBorrowCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldBorrowCapGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"NewBorrowCapGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldCloseFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"NewCloseFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"oldCollateralFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"NewCollateralFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldLiquidationIncentiveMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"NewLiquidationIncentive","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPauseGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"NewPauseGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract PriceOracle","name":"oldPriceOracle","type":"address"},{"indexed":false,"internalType":"contract PriceOracle","name":"newPriceOracle","type":"address"}],"name":"NewPriceOracle","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newSupplyCap","type":"uint256"}],"name":"NewSupplyCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enforce","type":"bool"}],"name":"WhitelistEnforcementChanged","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"distributor","type":"address"}],"name":"_addRewardsDistributor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_afterNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract Unitroller","name":"unitroller","type":"address"}],"name":"_become","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_beforeNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"isCEther","type":"bool"},{"internalType":"bytes","name":"constructorData","type":"bytes"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"name":"_deployMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"_setBorrowCapGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setBorrowPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"_setCloseFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"_setCollateralFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"_setLiquidationIncentive","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newBorrowCaps","type":"uint256[]"}],"name":"_setMarketBorrowCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newSupplyCaps","type":"uint256[]"}],"name":"_setMarketSupplyCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setMintPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"_setPauseGuardian","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract PriceOracle","name":"newOracle","type":"address"}],"name":"_setPriceOracle","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setSeizePaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setTransferPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enforce","type":"bool"}],"name":"_setWhitelistEnforcement","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"suppliers","type":"address[]"},{"internalType":"bool[]","name":"statuses","type":"bool[]"}],"name":"_setWhitelistStatuses","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enabled","type":"bool"}],"name":"_toggleAutoImplementations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"_unsupportMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint256","name":"","type":"uint256"}],"name":"accountAssets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"adminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allBorrowers","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allMarkets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"autoImplementation","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowCapGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"accountBorrowsNew","type":"uint256"}],"name":"borrowWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"cTokensByUnderlying","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"checkMembership","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"closeFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"enforceWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"cTokens","type":"address[]"}],"name":"enterMarkets","outputs":[{"internalType":"uint256[]","name":"","type":"uint256[]"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenAddress","type":"address"}],"name":"exitMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"fuseAdminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllBorrowers","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllMarkets","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAssetsIn","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"cTokenModify","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"getHypotheticalAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getRewardsDistributors","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getWhitelist","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isComptroller","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"isDeprecated","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"liquidateBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"liquidateBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"}],"name":"liquidateCalculateSeizeTokens","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"liquidationIncentiveMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"markets","outputs":[{"internalType":"bool","name":"isListed","type":"bool"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"actualMintAmount","type":"uint256"},{"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"mintVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"exchangeRateMantissa","type":"uint256"},{"internalType":"uint256","name":"accountTokens","type":"uint256"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"oracle","outputs":[{"internalType":"contract PriceOracle","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pauseGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingComptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"borrowerIndex","type":"uint256"}],"name":"repayBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"rewardsDistributors","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizeGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"suppliers","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"supplyCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"transferGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"whitelistArray","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>164</v>
       </c>
@@ -2527,12 +2482,11 @@
       <c r="G47" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="0" t="str">
-        <f aca="false">IF(F47="",E47,G47)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"rewardsDistributor","type":"address"}],"name":"AddedRewardsDistributor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enabled","type":"bool"}],"name":"AutoImplementationsToggled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketEntered","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketExited","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketListed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketUnlisted","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newBorrowCap","type":"uint256"}],"name":"NewBorrowCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldBorrowCapGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"NewBorrowCapGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldCloseFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"NewCloseFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"oldCollateralFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"NewCollateralFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldLiquidationIncentiveMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"NewLiquidationIncentive","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPauseGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"NewPauseGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract PriceOracle","name":"oldPriceOracle","type":"address"},{"indexed":false,"internalType":"contract PriceOracle","name":"newPriceOracle","type":"address"}],"name":"NewPriceOracle","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newSupplyCap","type":"uint256"}],"name":"NewSupplyCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enforce","type":"bool"}],"name":"WhitelistEnforcementChanged","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"distributor","type":"address"}],"name":"_addRewardsDistributor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_afterNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract Unitroller","name":"unitroller","type":"address"}],"name":"_become","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_beforeNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"isCEther","type":"bool"},{"internalType":"bytes","name":"constructorData","type":"bytes"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"name":"_deployMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"_setBorrowCapGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setBorrowPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"_setCloseFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"_setCollateralFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"_setLiquidationIncentive","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newBorrowCaps","type":"uint256[]"}],"name":"_setMarketBorrowCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newSupplyCaps","type":"uint256[]"}],"name":"_setMarketSupplyCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setMintPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"_setPauseGuardian","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract PriceOracle","name":"newOracle","type":"address"}],"name":"_setPriceOracle","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setSeizePaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setTransferPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enforce","type":"bool"}],"name":"_setWhitelistEnforcement","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"suppliers","type":"address[]"},{"internalType":"bool[]","name":"statuses","type":"bool[]"}],"name":"_setWhitelistStatuses","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enabled","type":"bool"}],"name":"_toggleAutoImplementations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"_unsupportMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint256","name":"","type":"uint256"}],"name":"accountAssets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"adminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allBorrowers","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allMarkets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"autoImplementation","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowCapGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"accountBorrowsNew","type":"uint256"}],"name":"borrowWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"cTokensByUnderlying","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"checkMembership","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"closeFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"enforceWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"cTokens","type":"address[]"}],"name":"enterMarkets","outputs":[{"internalType":"uint256[]","name":"","type":"uint256[]"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenAddress","type":"address"}],"name":"exitMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"fuseAdminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllBorrowers","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllMarkets","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAssetsIn","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"cTokenModify","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"getHypotheticalAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getRewardsDistributors","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getWhitelist","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isComptroller","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"isDeprecated","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"liquidateBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"liquidateBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"}],"name":"liquidateCalculateSeizeTokens","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"liquidationIncentiveMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"markets","outputs":[{"internalType":"bool","name":"isListed","type":"bool"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"actualMintAmount","type":"uint256"},{"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"mintVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"exchangeRateMantissa","type":"uint256"},{"internalType":"uint256","name":"accountTokens","type":"uint256"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"oracle","outputs":[{"internalType":"contract PriceOracle","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pauseGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingComptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"borrowerIndex","type":"uint256"}],"name":"repayBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"rewardsDistributors","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizeGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"suppliers","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"supplyCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"transferGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"whitelistArray","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>168</v>
       </c>
@@ -2554,12 +2508,11 @@
       <c r="G48" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H48" s="0" t="str">
-        <f aca="false">IF(F48="",E48,G48)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"rewardsDistributor","type":"address"}],"name":"AddedRewardsDistributor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enabled","type":"bool"}],"name":"AutoImplementationsToggled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketEntered","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketExited","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketListed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketUnlisted","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newBorrowCap","type":"uint256"}],"name":"NewBorrowCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldBorrowCapGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"NewBorrowCapGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldCloseFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"NewCloseFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"oldCollateralFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"NewCollateralFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldLiquidationIncentiveMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"NewLiquidationIncentive","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPauseGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"NewPauseGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract PriceOracle","name":"oldPriceOracle","type":"address"},{"indexed":false,"internalType":"contract PriceOracle","name":"newPriceOracle","type":"address"}],"name":"NewPriceOracle","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newSupplyCap","type":"uint256"}],"name":"NewSupplyCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enforce","type":"bool"}],"name":"WhitelistEnforcementChanged","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"distributor","type":"address"}],"name":"_addRewardsDistributor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_afterNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract Unitroller","name":"unitroller","type":"address"}],"name":"_become","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_beforeNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"isCEther","type":"bool"},{"internalType":"bytes","name":"constructorData","type":"bytes"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"name":"_deployMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"_setBorrowCapGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setBorrowPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"_setCloseFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"_setCollateralFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"_setLiquidationIncentive","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newBorrowCaps","type":"uint256[]"}],"name":"_setMarketBorrowCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newSupplyCaps","type":"uint256[]"}],"name":"_setMarketSupplyCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setMintPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"_setPauseGuardian","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract PriceOracle","name":"newOracle","type":"address"}],"name":"_setPriceOracle","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setSeizePaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setTransferPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enforce","type":"bool"}],"name":"_setWhitelistEnforcement","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"suppliers","type":"address[]"},{"internalType":"bool[]","name":"statuses","type":"bool[]"}],"name":"_setWhitelistStatuses","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enabled","type":"bool"}],"name":"_toggleAutoImplementations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"_unsupportMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint256","name":"","type":"uint256"}],"name":"accountAssets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"adminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allBorrowers","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allMarkets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"autoImplementation","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowCapGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"accountBorrowsNew","type":"uint256"}],"name":"borrowWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"cTokensByUnderlying","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"checkMembership","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"closeFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"enforceWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"cTokens","type":"address[]"}],"name":"enterMarkets","outputs":[{"internalType":"uint256[]","name":"","type":"uint256[]"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenAddress","type":"address"}],"name":"exitMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"fuseAdminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllBorrowers","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllMarkets","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAssetsIn","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"cTokenModify","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"getHypotheticalAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getRewardsDistributors","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getWhitelist","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isComptroller","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"isDeprecated","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"liquidateBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"liquidateBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"}],"name":"liquidateCalculateSeizeTokens","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"liquidationIncentiveMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"markets","outputs":[{"internalType":"bool","name":"isListed","type":"bool"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"actualMintAmount","type":"uint256"},{"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"mintVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"exchangeRateMantissa","type":"uint256"},{"internalType":"uint256","name":"accountTokens","type":"uint256"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"oracle","outputs":[{"internalType":"contract PriceOracle","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pauseGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingComptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"borrowerIndex","type":"uint256"}],"name":"repayBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"rewardsDistributors","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizeGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"suppliers","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"supplyCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"transferGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"whitelistArray","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>171</v>
       </c>
@@ -2581,12 +2534,11 @@
       <c r="G49" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="0" t="str">
-        <f aca="false">IF(F49="",E49,G49)</f>
-        <v>[{"anonymous":false,"inputs":[{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"string","name":"action","type":"string"},{"indexed":false,"internalType":"bool","name":"pauseState","type":"bool"}],"name":"ActionPaused","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"rewardsDistributor","type":"address"}],"name":"AddedRewardsDistributor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enabled","type":"bool"}],"name":"AutoImplementationsToggled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketEntered","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"address","name":"account","type":"address"}],"name":"MarketExited","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketListed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"MarketUnlisted","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newBorrowCap","type":"uint256"}],"name":"NewBorrowCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldBorrowCapGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"NewBorrowCapGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldCloseFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"NewCloseFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"oldCollateralFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"NewCollateralFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldLiquidationIncentiveMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"NewLiquidationIncentive","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPauseGuardian","type":"address"},{"indexed":false,"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"NewPauseGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract PriceOracle","name":"oldPriceOracle","type":"address"},{"indexed":false,"internalType":"contract PriceOracle","name":"newPriceOracle","type":"address"}],"name":"NewPriceOracle","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"contract CToken","name":"cToken","type":"address"},{"indexed":false,"internalType":"uint256","name":"newSupplyCap","type":"uint256"}],"name":"NewSupplyCap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"bool","name":"enforce","type":"bool"}],"name":"WhitelistEnforcementChanged","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"distributor","type":"address"}],"name":"_addRewardsDistributor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_afterNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract Unitroller","name":"unitroller","type":"address"}],"name":"_become","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_beforeNonReentrant","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"isCEther","type":"bool"},{"internalType":"bytes","name":"constructorData","type":"bytes"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"name":"_deployMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"_mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newBorrowCapGuardian","type":"address"}],"name":"_setBorrowCapGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setBorrowPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newCloseFactorMantissa","type":"uint256"}],"name":"_setCloseFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"uint256","name":"newCollateralFactorMantissa","type":"uint256"}],"name":"_setCollateralFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newLiquidationIncentiveMantissa","type":"uint256"}],"name":"_setLiquidationIncentive","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newBorrowCaps","type":"uint256[]"}],"name":"_setMarketBorrowCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken[]","name":"cTokens","type":"address[]"},{"internalType":"uint256[]","name":"newSupplyCaps","type":"uint256[]"}],"name":"_setMarketSupplyCaps","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"},{"internalType":"bool","name":"state","type":"bool"}],"name":"_setMintPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPauseGuardian","type":"address"}],"name":"_setPauseGuardian","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract PriceOracle","name":"newOracle","type":"address"}],"name":"_setPriceOracle","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setSeizePaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"state","type":"bool"}],"name":"_setTransferPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enforce","type":"bool"}],"name":"_setWhitelistEnforcement","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"suppliers","type":"address[]"},{"internalType":"bool[]","name":"statuses","type":"bool[]"}],"name":"_setWhitelistStatuses","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"enabled","type":"bool"}],"name":"_toggleAutoImplementations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"_unsupportMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint256","name":"","type":"uint256"}],"name":"accountAssets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"adminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allBorrowers","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allMarkets","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"autoImplementation","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowCapGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"borrowGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"accountBorrowsNew","type":"uint256"}],"name":"borrowWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"cTokensByUnderlying","outputs":[{"internalType":"contract CToken","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"checkMembership","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"closeFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"enforceWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"cTokens","type":"address[]"}],"name":"enterMarkets","outputs":[{"internalType":"uint256[]","name":"","type":"uint256[]"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenAddress","type":"address"}],"name":"exitMarket","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"fuseAdminHasRights","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllBorrowers","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getAllMarkets","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAssetsIn","outputs":[{"internalType":"contract CToken[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"cTokenModify","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"},{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"getHypotheticalAccountLiquidity","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getRewardsDistributors","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getWhitelist","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isComptroller","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"contract CToken","name":"cToken","type":"address"}],"name":"isDeprecated","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"liquidateBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"liquidateBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"}],"name":"liquidateCalculateSeizeTokens","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"liquidationIncentiveMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"markets","outputs":[{"internalType":"bool","name":"isListed","type":"bool"},{"internalType":"uint256","name":"collateralFactorMantissa","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"mintGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"minter","type":"address"},{"internalType":"uint256","name":"actualMintAmount","type":"uint256"},{"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"mintVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"uint256","name":"exchangeRateMantissa","type":"uint256"},{"internalType":"uint256","name":"accountTokens","type":"uint256"},{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mintWithinLimits","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"oracle","outputs":[{"internalType":"contract PriceOracle","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pauseGuardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingComptrollerImplementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"redeemer","type":"address"},{"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeemVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"payer","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"actualRepayAmount","type":"uint256"},{"internalType":"uint256","name":"borrowerIndex","type":"uint256"}],"name":"repayBorrowVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"rewardsDistributors","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizeGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cTokenCollateral","type":"address"},{"internalType":"address","name":"cTokenBorrowed","type":"address"},{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seizeVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"suppliers","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"supplyCaps","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferAllowed","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"transferGuardianPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"cToken","type":"address"},{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"transferTokens","type":"uint256"}],"name":"transferVerify","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"whitelistArray","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>174</v>
       </c>
@@ -2602,12 +2554,11 @@
       <c r="E50" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="0" t="str">
-        <f aca="false">IF(F50="",E50,G50)</f>
-        <v>[{"inputs":[{"internalType":"contract CErc20","name":"ctoken_","type":"address"},{"internalType":"address","name":"gov_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"constant":true,"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"contraction","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"ctoken","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"resign","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"takeProfit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>177</v>
       </c>
@@ -2623,12 +2574,11 @@
       <c r="E51" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="0" t="str">
-        <f aca="false">IF(F51="",E51,G51)</f>
-        <v>[{"inputs":[{"internalType":"contract CErc20","name":"ctoken_","type":"address"},{"internalType":"address","name":"gov_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"constant":true,"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"contraction","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"ctoken","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"resign","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"takeProfit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>180</v>
       </c>
@@ -2644,12 +2594,11 @@
       <c r="E52" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="0" t="str">
-        <f aca="false">IF(F52="",E52,G52)</f>
-        <v>[{"inputs":[{"internalType":"contract CErc20","name":"ctoken_","type":"address"},{"internalType":"address","name":"gov_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"constant":true,"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"contraction","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"ctoken","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"resign","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"takeProfit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>183</v>
       </c>
@@ -2665,12 +2614,11 @@
       <c r="E53" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="0" t="str">
-        <f aca="false">IF(F53="",E53,G53)</f>
-        <v>[{"inputs":[{"internalType":"contract CErc20","name":"ctoken_","type":"address"},{"internalType":"address","name":"gov_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"constant":true,"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"contraction","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"ctoken","outputs":[{"internalType":"contract CErc20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"resign","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"takeProfit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"contract ERC20","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>186</v>
       </c>
@@ -2692,12 +2640,11 @@
       <c r="G54" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H54" s="0" t="str">
-        <f aca="false">IF(F54="",E54,G54)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>189</v>
       </c>
@@ -2719,12 +2666,11 @@
       <c r="G55" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H55" s="0" t="str">
-        <f aca="false">IF(F55="",E55,G55)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>192</v>
       </c>
@@ -2746,12 +2692,11 @@
       <c r="G56" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H56" s="0" t="str">
-        <f aca="false">IF(F56="",E56,G56)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldAdminFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"NewAdminFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldFuseFeeMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newFuseFeeMantissa","type":"uint256"}],"name":"NewFuseFee","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"_becomeImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"compLikeDelegatee","type":"address"}],"name":"_delegateCompLikeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"_prepare","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newAdminFeeMantissa","type":"uint256"}],"name":"_setAdminFee","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementationSafe","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"}],"name":"_setNameAndSymbol","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"withdrawAmount","type":"uint256"}],"name":"_withdrawFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"adminFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"fuseFeeMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint256","name":"reserveFactorMantissa_","type":"uint256"},{"internalType":"uint256","name":"adminFeeMantissa_","type":"uint256"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCEther","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"protocolSeizeShareMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalAdminFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalFuseFees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>193</v>
       </c>
@@ -2767,12 +2712,11 @@
       <c r="E57" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="0" t="str">
-        <f aca="false">IF(F57="",E57,G57)</f>
-        <v>[{"inputs":[{"internalType":"contract TimelockInterface","name":"timelock_","type":"address"},{"internalType":"contract InvInterface","name":"inv_","type":"address"},{"internalType":"contract XinvInterface","name":"xinv_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"guardian","type":"address"}],"name":"NewGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"}],"name":"ProposalCanceled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"},{"indexed":false,"internalType":"address","name":"proposer","type":"address"},{"indexed":false,"internalType":"address[]","name":"targets","type":"address[]"},{"indexed":false,"internalType":"uint256[]","name":"values","type":"uint256[]"},{"indexed":false,"internalType":"string[]","name":"signatures","type":"string[]"},{"indexed":false,"internalType":"bytes[]","name":"calldatas","type":"bytes[]"},{"indexed":false,"internalType":"uint256","name":"startBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"endBlock","type":"uint256"},{"indexed":false,"internalType":"string","name":"description","type":"string"}],"name":"ProposalCreated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"}],"name":"ProposalExecuted","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"eta","type":"uint256"}],"name":"ProposalQueued","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldThreshold","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newThreshold","type":"uint256"}],"name":"ProposalThresholdUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"proposer","type":"address"},{"indexed":false,"internalType":"bool","name":"value","type":"bool"}],"name":"ProposerWhitelistUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldQuorum","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newQuorum","type":"uint256"}],"name":"QuorumUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"voter","type":"address"},{"indexed":false,"internalType":"uint256","name":"proposalId","type":"uint256"},{"indexed":false,"internalType":"bool","name":"support","type":"bool"},{"indexed":false,"internalType":"uint256","name":"votes","type":"uint256"}],"name":"VoteCast","type":"event"},{"constant":true,"inputs":[],"name":"BALLOT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"DOMAIN_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingAdmin","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"}],"name":"__executeSetTimelockPendingAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingAdmin","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"}],"name":"__queueSetTimelockPendingAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"acceptAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"cancel","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"bool","name":"support","type":"bool"}],"name":"castVote","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"bool","name":"support","type":"bool"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"castVoteBySig","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"execute","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"getActions","outputs":[{"internalType":"address[]","name":"targets","type":"address[]"},{"internalType":"uint256[]","name":"values","type":"uint256[]"},{"internalType":"string[]","name":"signatures","type":"string[]"},{"internalType":"bytes[]","name":"calldatas","type":"bytes[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"address","name":"voter","type":"address"}],"name":"getReceipt","outputs":[{"components":[{"internalType":"bool","name":"hasVoted","type":"bool"},{"internalType":"bool","name":"support","type":"bool"},{"internalType":"uint96","name":"votes","type":"uint96"}],"internalType":"struct GovernorMills.Receipt","name":"","type":"tuple"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"guardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"inv","outputs":[{"internalType":"contract InvInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"latestProposalIds","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"proposalCount","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"proposalMaxOperations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"proposalThreshold","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"proposals","outputs":[{"internalType":"uint256","name":"id","type":"uint256"},{"internalType":"address","name":"proposer","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"},{"internalType":"uint256","name":"startBlock","type":"uint256"},{"internalType":"uint256","name":"endBlock","type":"uint256"},{"internalType":"uint256","name":"forVotes","type":"uint256"},{"internalType":"uint256","name":"againstVotes","type":"uint256"},{"internalType":"bool","name":"canceled","type":"bool"},{"internalType":"bool","name":"executed","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"targets","type":"address[]"},{"internalType":"uint256[]","name":"values","type":"uint256[]"},{"internalType":"string[]","name":"signatures","type":"string[]"},{"internalType":"bytes[]","name":"calldatas","type":"bytes[]"},{"internalType":"string","name":"description","type":"string"}],"name":"propose","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"proposerWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"queue","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"quorumVotes","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_newGuardian","type":"address"}],"name":"setGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"state","outputs":[{"internalType":"enum GovernorMills.ProposalState","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"timelock","outputs":[{"internalType":"contract TimelockInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newQuorum","type":"uint256"}],"name":"updateProposalQuorum","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newThreshold","type":"uint256"}],"name":"updateProposalThreshold","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"proposer","type":"address"},{"internalType":"bool","name":"value","type":"bool"}],"name":"updateProposerWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"votingDelay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"votingPeriod","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"xinv","outputs":[{"internalType":"contract XinvInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"xinvExchangeRates","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>198</v>
       </c>
@@ -2788,12 +2732,11 @@
       <c r="E58" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="0" t="str">
-        <f aca="false">IF(F58="",E58,G58)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"account","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"newOwner","type":"address"}],"name":"OwnerChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DELEGATION_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"DOMAIN_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"abolishSeizing","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_user","type":"address"}],"name":"addToWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"closeTheGates","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"delegatee","type":"address"}],"name":"delegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"delegatee","type":"address"},{"internalType":"uint256","name":"nonce","type":"uint256"},{"internalType":"uint256","name":"expiry","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"delegateBySig","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"openTheGates","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_user","type":"address"}],"name":"removeFromWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"seizable","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"seize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner_","type":"address"}],"name":"setOwner","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"tradable","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"rawAmount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"whitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>201</v>
       </c>
@@ -2809,12 +2752,11 @@
       <c r="E59" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H59" s="0" t="str">
-        <f aca="false">IF(F59="",E59,G59)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"_customTreasury","type":"address"},{"internalType":"address","name":"_payoutToken","type":"address"},{"internalType":"address","name":"_principalToken","type":"address"},{"internalType":"address","name":"_olympusTreasury","type":"address"},{"internalType":"address","name":"_subsidyRouter","type":"address"},{"internalType":"address","name":"_initialOwner","type":"address"},{"internalType":"address","name":"_olympusDAO","type":"address"},{"internalType":"uint256[]","name":"_tierCeilings","type":"uint256[]"},{"internalType":"uint256[]","name":"_fees","type":"uint256[]"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"deposit","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"payout","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"expires","type":"uint256"}],"name":"BondCreated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"internalPrice","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"debtRatio","type":"uint256"}],"name":"BondPriceChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"payout","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"remaining","type":"uint256"}],"name":"BondRedeemed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"initialBCV","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBCV","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"adjustment","type":"uint256"},{"indexed":false,"internalType":"bool","name":"addition","type":"bool"}],"name":"ControlVariableAdjustment","type":"event"},{"inputs":[],"name":"adjustment","outputs":[{"internalType":"bool","name":"add","type":"bool"},{"internalType":"uint256","name":"rate","type":"uint256"},{"internalType":"uint256","name":"target","type":"uint256"},{"internalType":"uint256","name":"buffer","type":"uint256"},{"internalType":"uint256","name":"lastBlock","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"bondInfo","outputs":[{"internalType":"uint256","name":"payout","type":"uint256"},{"internalType":"uint256","name":"vesting","type":"uint256"},{"internalType":"uint256","name":"lastBlock","type":"uint256"},{"internalType":"uint256","name":"truePricePaid","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"bondPrice","outputs":[{"internalType":"uint256","name":"price_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_olympusTreasury","type":"address"}],"name":"changeOlympusTreasury","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"currentDebt","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"currentOlympusFee","outputs":[{"internalType":"uint256","name":"currentFee_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"debtDecay","outputs":[{"internalType":"uint256","name":"decay_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"debtRatio","outputs":[{"internalType":"uint256","name":"debtRatio_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"_amount","type":"uint256"},{"internalType":"uint256","name":"_maxPrice","type":"uint256"},{"internalType":"address","name":"_depositor","type":"address"}],"name":"deposit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_controlVariable","type":"uint256"},{"internalType":"uint256","name":"_vestingTerm","type":"uint256"},{"internalType":"uint256","name":"_minimumPrice","type":"uint256"},{"internalType":"uint256","name":"_maxPayout","type":"uint256"},{"internalType":"uint256","name":"_maxDebt","type":"uint256"},{"internalType":"uint256","name":"_initialDebt","type":"uint256"}],"name":"initializeBond","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"lastDecay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxPayout","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"paySubsidy","outputs":[{"internalType":"uint256","name":"payoutSinceLastSubsidy_","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_value","type":"uint256"}],"name":"payoutFor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_depositor","type":"address"}],"name":"pendingPayoutFor","outputs":[{"internalType":"uint256","name":"pendingPayout_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_depositor","type":"address"}],"name":"percentVestedFor","outputs":[{"internalType":"uint256","name":"percentVested_","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"policy","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_depositor","type":"address"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"bool","name":"_addition","type":"bool"},{"internalType":"uint256","name":"_increment","type":"uint256"},{"internalType":"uint256","name":"_target","type":"uint256"},{"internalType":"uint256","name":"_buffer","type":"uint256"}],"name":"setAdjustment","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"enum CustomBond.PARAMETER","name":"_parameter","type":"uint8"},{"internalType":"uint256","name":"_input","type":"uint256"}],"name":"setBondTerms","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"terms","outputs":[{"internalType":"uint256","name":"controlVariable","type":"uint256"},{"internalType":"uint256","name":"vestingTerm","type":"uint256"},{"internalType":"uint256","name":"minimumPrice","type":"uint256"},{"internalType":"uint256","name":"maxPayout","type":"uint256"},{"internalType":"uint256","name":"maxDebt","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalDebt","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalPayoutGiven","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalPrincipalBonded","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_newOwner","type":"address"}],"name":"transferManagment","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"trueBondPrice","outputs":[{"internalType":"uint256","name":"price_","type":"uint256"}],"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>205</v>
       </c>
@@ -2830,12 +2772,11 @@
       <c r="E60" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="H60" s="0" t="str">
-        <f aca="false">IF(F60="",E60,G60)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"},{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldImplementation","type":"address"},{"indexed":false,"internalType":"address","name":"newImplementation","type":"address"}],"name":"NewImplementation","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"implementation_","type":"address"},{"internalType":"bool","name":"allowResign","type":"bool"},{"internalType":"bytes","name":"becomeImplementationData","type":"bytes"}],"name":"_setImplementation","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"delegateToImplementation","outputs":[{"internalType":"bytes","name":"","type":"bytes"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"bytes","name":"data","type":"bytes"}],"name":"delegateToViewImplementation","outputs":[{"internalType":"bytes","name":"","type":"bytes"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>209</v>
       </c>
@@ -2851,12 +2792,11 @@
       <c r="E61" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H61" s="0" t="str">
-        <f aca="false">IF(F61="",E61,G61)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>213</v>
       </c>
@@ -2872,12 +2812,11 @@
       <c r="E62" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H62" s="0" t="str">
-        <f aca="false">IF(F62="",E62,G62)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>216</v>
       </c>
@@ -2893,12 +2832,11 @@
       <c r="E63" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H63" s="0" t="str">
-        <f aca="false">IF(F63="",E63,G63)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>219</v>
       </c>
@@ -2914,12 +2852,11 @@
       <c r="E64" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="0" t="str">
-        <f aca="false">IF(F64="",E64,G64)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>222</v>
       </c>
@@ -2935,12 +2872,11 @@
       <c r="E65" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H65" s="0" t="str">
-        <f aca="false">IF(F65="",E65,G65)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>225</v>
       </c>
@@ -2956,12 +2892,11 @@
       <c r="E66" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H66" s="0" t="str">
-        <f aca="false">IF(F66="",E66,G66)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>228</v>
       </c>
@@ -2977,12 +2912,11 @@
       <c r="E67" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H67" s="0" t="str">
-        <f aca="false">IF(F67="",E67,G67)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>231</v>
       </c>
@@ -2998,12 +2932,11 @@
       <c r="E68" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H68" s="0" t="str">
-        <f aca="false">IF(F68="",E68,G68)</f>
-        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"spender","type":"address"},{"name":"amount","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"mint","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"repayBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"initialExchangeRateMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"},{"name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"liquidator","type":"address"},{"name":"borrower","type":"address"},{"name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"},{"name":"spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"}],"name":"repayBorrowBehalf","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"inputs":[{"name":"comptroller_","type":"address"},{"name":"interestRateModel_","type":"address"},{"name":"initialExchangeRateMantissa_","type":"uint256"},{"name":"name_","type":"string"},{"name":"symbol_","type":"string"},{"name":"decimals_","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":false,"name":"interestAccumulated","type":"uint256"},{"indexed":false,"name":"borrowIndex","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"minter","type":"address"},{"indexed":false,"name":"mintAmount","type":"uint256"},{"indexed":false,"name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"redeemer","type":"address"},{"indexed":false,"name":"redeemAmount","type":"uint256"},{"indexed":false,"name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"borrowAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"payer","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"liquidator","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"cTokenCollateral","type":"address"},{"indexed":false,"name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldPendingAdmin","type":"address"},{"indexed":false,"name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldAdmin","type":"address"},{"indexed":false,"name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldComptroller","type":"address"},{"indexed":false,"name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldInterestRateModel","type":"address"},{"indexed":false,"name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"admin","type":"address"},{"indexed":false,"name":"reduceAmount","type":"uint256"},{"indexed":false,"name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"error","type":"uint256"},{"indexed":false,"name":"info","type":"uint256"},{"indexed":false,"name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Approval","type":"event"}]</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>235</v>
       </c>
@@ -3019,12 +2952,11 @@
       <c r="E69" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H69" s="0" t="str">
-        <f aca="false">IF(F69="",E69,G69)</f>
-        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"spender","type":"address"},{"name":"amount","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"mint","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"repayBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"initialExchangeRateMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"},{"name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"liquidator","type":"address"},{"name":"borrower","type":"address"},{"name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"},{"name":"spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"}],"name":"repayBorrowBehalf","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"inputs":[{"name":"comptroller_","type":"address"},{"name":"interestRateModel_","type":"address"},{"name":"initialExchangeRateMantissa_","type":"uint256"},{"name":"name_","type":"string"},{"name":"symbol_","type":"string"},{"name":"decimals_","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":false,"name":"interestAccumulated","type":"uint256"},{"indexed":false,"name":"borrowIndex","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"minter","type":"address"},{"indexed":false,"name":"mintAmount","type":"uint256"},{"indexed":false,"name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"redeemer","type":"address"},{"indexed":false,"name":"redeemAmount","type":"uint256"},{"indexed":false,"name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"borrowAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"payer","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"liquidator","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"cTokenCollateral","type":"address"},{"indexed":false,"name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldPendingAdmin","type":"address"},{"indexed":false,"name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldAdmin","type":"address"},{"indexed":false,"name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldComptroller","type":"address"},{"indexed":false,"name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldInterestRateModel","type":"address"},{"indexed":false,"name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"admin","type":"address"},{"indexed":false,"name":"reduceAmount","type":"uint256"},{"indexed":false,"name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"error","type":"uint256"},{"indexed":false,"name":"info","type":"uint256"},{"indexed":false,"name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Approval","type":"event"}]</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>238</v>
       </c>
@@ -3040,12 +2972,11 @@
       <c r="E70" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H70" s="0" t="str">
-        <f aca="false">IF(F70="",E70,G70)</f>
-        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"spender","type":"address"},{"name":"amount","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"mint","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"repayBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"initialExchangeRateMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"},{"name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"liquidator","type":"address"},{"name":"borrower","type":"address"},{"name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"},{"name":"spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"}],"name":"repayBorrowBehalf","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"inputs":[{"name":"comptroller_","type":"address"},{"name":"interestRateModel_","type":"address"},{"name":"initialExchangeRateMantissa_","type":"uint256"},{"name":"name_","type":"string"},{"name":"symbol_","type":"string"},{"name":"decimals_","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":false,"name":"interestAccumulated","type":"uint256"},{"indexed":false,"name":"borrowIndex","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"minter","type":"address"},{"indexed":false,"name":"mintAmount","type":"uint256"},{"indexed":false,"name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"redeemer","type":"address"},{"indexed":false,"name":"redeemAmount","type":"uint256"},{"indexed":false,"name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"borrowAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"payer","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"liquidator","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"cTokenCollateral","type":"address"},{"indexed":false,"name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldPendingAdmin","type":"address"},{"indexed":false,"name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldAdmin","type":"address"},{"indexed":false,"name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldComptroller","type":"address"},{"indexed":false,"name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldInterestRateModel","type":"address"},{"indexed":false,"name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"admin","type":"address"},{"indexed":false,"name":"reduceAmount","type":"uint256"},{"indexed":false,"name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"error","type":"uint256"},{"indexed":false,"name":"info","type":"uint256"},{"indexed":false,"name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Approval","type":"event"}]</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>241</v>
       </c>
@@ -3058,9 +2989,8 @@
       <c r="E71" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H71" s="0" t="str">
-        <f aca="false">IF(F71="",E71,G71)</f>
-        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"spender","type":"address"},{"name":"amount","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"mint","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"repayBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"initialExchangeRateMantissa","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"},{"name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"liquidator","type":"address"},{"name":"borrower","type":"address"},{"name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"},{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"owner","type":"address"},{"name":"spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"borrower","type":"address"}],"name":"repayBorrowBehalf","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"inputs":[{"name":"comptroller_","type":"address"},{"name":"interestRateModel_","type":"address"},{"name":"initialExchangeRateMantissa_","type":"uint256"},{"name":"name_","type":"string"},{"name":"symbol_","type":"string"},{"name":"decimals_","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":false,"name":"interestAccumulated","type":"uint256"},{"indexed":false,"name":"borrowIndex","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"minter","type":"address"},{"indexed":false,"name":"mintAmount","type":"uint256"},{"indexed":false,"name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"redeemer","type":"address"},{"indexed":false,"name":"redeemAmount","type":"uint256"},{"indexed":false,"name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"borrowAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"payer","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"accountBorrows","type":"uint256"},{"indexed":false,"name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"liquidator","type":"address"},{"indexed":false,"name":"borrower","type":"address"},{"indexed":false,"name":"repayAmount","type":"uint256"},{"indexed":false,"name":"cTokenCollateral","type":"address"},{"indexed":false,"name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldPendingAdmin","type":"address"},{"indexed":false,"name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldAdmin","type":"address"},{"indexed":false,"name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldComptroller","type":"address"},{"indexed":false,"name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldInterestRateModel","type":"address"},{"indexed":false,"name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"admin","type":"address"},{"indexed":false,"name":"reduceAmount","type":"uint256"},{"indexed":false,"name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"name":"error","type":"uint256"},{"indexed":false,"name":"info","type":"uint256"},{"indexed":false,"name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Approval","type":"event"}]</v>
+      <c r="H71" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="363">
   <si>
     <t xml:space="preserve">governance</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">fed</t>
   </si>
   <si>
+    <t xml:space="preserve">sushi</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProposalCreated</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap</t>
   </si>
   <si>
     <t xml:space="preserve">ProposalCanceled</t>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">supply()</t>
   </si>
   <si>
+    <t xml:space="preserve">symbol()</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -157,15 +166,33 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">price0CumulativeLast()</t>
+  </si>
+  <si>
     <t xml:space="preserve">balances(0)</t>
   </si>
   <si>
+    <t xml:space="preserve">price1CumulativeLast()</t>
+  </si>
+  <si>
     <t xml:space="preserve">balances(1)</t>
   </si>
   <si>
+    <t xml:space="preserve">token0()</t>
+  </si>
+  <si>
     <t xml:space="preserve">get_virtual_price()</t>
   </si>
   <si>
+    <t xml:space="preserve">token1()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">totalSupply()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getReserves()</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -412,6 +439,27 @@
     <t xml:space="preserve">https://etherscan.io/address/0x7e18AB8d87F3430968f0755A623FB35017cB3EcA </t>
   </si>
   <si>
+    <t xml:space="preserve">Sushiswap INV/DOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://etherscan.io/address/0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002#code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushiswap INV/WETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x328dfd0139e26cb0fef7b0742b49b0fe4325f821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://etherscan.io/address/0x328dfd0139e26cb0fef7b0742b49b0fe4325f821#code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sushiswap WBTC/ibBTC</t>
   </si>
   <si>
@@ -424,9 +472,6 @@
     <t xml:space="preserve">alert-name</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Treasury Multisig</t>
   </si>
   <si>
@@ -1100,24 +1145,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://etherscan.io/address/0xa5c475167f03b1556c054e0da78192cd2779087f#code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sushiswap INV/DOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://etherscan.io/address/0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002#code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sushiswap INV/WETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x328dfd0139e26cb0fef7b0742b49b0fe4325f821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://etherscan.io/address/0x328dfd0139e26cb0fef7b0742b49b0fe4325f821#code</t>
   </si>
   <si>
     <t xml:space="preserve">Sushiswap RGT/WETH</t>
@@ -1234,7 +1261,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,7 +1301,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1358,7 +1391,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1375,19 +1408,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1395,7 +1432,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1474,7 +1511,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF9C0006"/>
@@ -1487,7 +1524,7 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1502,7 +1539,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -1566,7 +1603,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1589,54 +1626,66 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1644,7 +1693,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1669,7 +1718,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1692,65 +1741,104 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1772,7 +1860,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1788,492 +1876,531 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>34</v>
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>98</v>
+      <c r="A21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
+      <c r="A22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>104</v>
+      <c r="A23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>107</v>
+      <c r="A24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2398,8 +2525,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2408,46 +2535,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>34</v>
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">IF(F2="",E2,G2)</f>
@@ -2456,19 +2583,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">IF(F3="",E3,G3)</f>
@@ -2477,19 +2604,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">IF(F4="",E4,G4)</f>
@@ -2498,19 +2625,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>112</v>
+        <v>139</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">IF(F5="",E5,G5)</f>
@@ -2519,19 +2646,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>112</v>
+        <v>142</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">IF(F6="",E6,G6)</f>
@@ -2540,19 +2667,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">IF(F7="",E7,G7)</f>
@@ -2561,19 +2688,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>112</v>
+        <v>148</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">IF(F8="",E8,G8)</f>
@@ -2582,19 +2709,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">IF(F9="",E9,G9)</f>
@@ -2603,19 +2730,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>154</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">IF(F10="",E10,G10)</f>
@@ -2624,19 +2751,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>112</v>
+        <v>157</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">IF(F11="",E11,G11)</f>
@@ -2645,19 +2772,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">IF(F12="",E12,G12)</f>
@@ -2666,19 +2793,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>163</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">IF(F13="",E13,G13)</f>
@@ -2687,19 +2814,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>112</v>
+        <v>166</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">IF(F14="",E14,G14)</f>
@@ -2708,19 +2835,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>112</v>
+        <v>169</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">IF(F15="",E15,G15)</f>
@@ -2729,19 +2856,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">IF(F16="",E16,G16)</f>
@@ -2750,19 +2877,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>112</v>
+        <v>176</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">IF(F17="",E17,G17)</f>
@@ -2771,19 +2898,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>112</v>
+        <v>179</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">IF(F18="",E18,G18)</f>
@@ -2792,19 +2919,19 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">IF(F19="",E19,G19)</f>
@@ -2813,19 +2940,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>112</v>
+        <v>182</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">IF(F20="",E20,G20)</f>
@@ -2834,19 +2961,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>173</v>
+        <v>185</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">IF(F21="",E21,G21)</f>
@@ -2855,19 +2982,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">IF(F22="",E22,G22)</f>
@@ -2876,19 +3003,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>181</v>
+        <v>195</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">IF(F23="",E23,G23)</f>
@@ -2897,19 +3024,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>185</v>
+        <v>198</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">IF(F24="",E24,G24)</f>
@@ -2918,1586 +3045,1586 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>172</v>
+        <v>207</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>112</v>
+        <v>211</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>112</v>
+        <v>214</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>112</v>
+        <v>220</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>112</v>
+        <v>223</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>112</v>
+        <v>227</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="G44" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="F46" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D52" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D53" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D54" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D64" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>112</v>
+        <v>314</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>112</v>
+        <v>317</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>112</v>
+        <v>321</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>112</v>
+        <v>325</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>112</v>
+        <v>329</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="G72" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="H74" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="D79" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>112</v>
+        <v>342</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>112</v>
+        <v>345</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>112</v>
+        <v>349</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>112</v>
+        <v>353</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>339</v>
+        <v>118</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>340</v>
+        <v>119</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>112</v>
+        <v>356</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>112</v>
+        <v>359</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>112</v>
+        <v>362</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="H93" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="399">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -397,7 +397,13 @@
     <t xml:space="preserve">RepayBorrow</t>
   </si>
   <si>
+    <t xml:space="preserve">MarketUnlisted</t>
+  </si>
+  <si>
     <t xml:space="preserve">LiquidateBorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketListed</t>
   </si>
   <si>
     <t xml:space="preserve">proposalCount()</t>
@@ -1725,8 +1731,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,7 +2419,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2518,17 +2524,21 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2562,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2596,117 +2606,117 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2769,16 +2779,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>76</v>
@@ -2790,19 +2800,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">IF(F3="",E3,G3)</f>
@@ -2811,19 +2821,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">IF(F4="",E4,G4)</f>
@@ -2832,19 +2842,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">IF(F5="",E5,G5)</f>
@@ -2853,19 +2863,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">IF(F6="",E6,G6)</f>
@@ -2874,19 +2884,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">IF(F7="",E7,G7)</f>
@@ -2895,19 +2905,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">IF(F8="",E8,G8)</f>
@@ -2916,19 +2926,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">IF(F9="",E9,G9)</f>
@@ -2937,19 +2947,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">IF(F10="",E10,G10)</f>
@@ -2958,19 +2968,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">IF(F11="",E11,G11)</f>
@@ -2979,19 +2989,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">IF(F12="",E12,G12)</f>
@@ -3000,19 +3010,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">IF(F13="",E13,G13)</f>
@@ -3021,19 +3031,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">IF(F14="",E14,G14)</f>
@@ -3042,19 +3052,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">IF(F15="",E15,G15)</f>
@@ -3063,19 +3073,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">IF(F16="",E16,G16)</f>
@@ -3084,19 +3094,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">IF(F17="",E17,G17)</f>
@@ -3105,19 +3115,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">IF(F18="",E18,G18)</f>
@@ -3132,10 +3142,10 @@
         <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>43</v>
@@ -3147,19 +3157,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">IF(F20="",E20,G20)</f>
@@ -3168,19 +3178,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">IF(F21="",E21,G21)</f>
@@ -3189,19 +3199,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>210</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">IF(F22="",E22,G22)</f>
@@ -3210,19 +3220,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">IF(F23="",E23,G23)</f>
@@ -3231,19 +3241,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">IF(F24="",E24,G24)</f>
@@ -3252,62 +3262,62 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +3328,10 @@
         <v>19</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>21</v>
@@ -3338,10 +3348,10 @@
         <v>99</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>100</v>
@@ -3358,7 +3368,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>42</v>
@@ -3378,7 +3388,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>42</v>
@@ -3398,7 +3408,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>42</v>
@@ -3418,16 +3428,16 @@
         <v>56</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,56 +3448,56 @@
         <v>59</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,7 +3508,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>15</v>
@@ -3512,594 +3522,594 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,10 +4120,10 @@
         <v>24</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>25</v>
@@ -4130,10 +4140,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>25</v>
@@ -4144,152 +4154,152 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,10 +4310,10 @@
         <v>82</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>84</v>
@@ -4326,10 +4336,10 @@
         <v>89</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>90</v>
@@ -4352,10 +4362,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>90</v>
@@ -4378,10 +4388,10 @@
         <v>96</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>90</v>
@@ -4404,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>21</v>
@@ -4424,10 +4434,10 @@
         <v>32</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>21</v>
@@ -4444,10 +4454,10 @@
         <v>35</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>21</v>
@@ -4464,10 +4474,10 @@
         <v>38</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>21</v>
@@ -4478,154 +4488,154 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="C79" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>76</v>
@@ -4642,10 +4652,10 @@
         <v>74</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>76</v>
@@ -4662,10 +4672,10 @@
         <v>79</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>76</v>
@@ -4676,16 +4686,16 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>76</v>
@@ -4696,16 +4706,16 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>76</v>
@@ -4716,16 +4726,16 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>76</v>
@@ -4736,16 +4746,16 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>76</v>
@@ -4756,82 +4766,82 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -29,7 +29,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="411">
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addresses to watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerts_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events emitted to watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerts_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read state function to fetch for results</t>
+  </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -55,6 +79,9 @@
     <t xml:space="preserve">etherscan_link</t>
   </si>
   <si>
+    <t xml:space="preserve">oracle</t>
+  </si>
+  <si>
     <t xml:space="preserve">GovernorMills</t>
   </si>
   <si>
@@ -166,6 +193,9 @@
     <t xml:space="preserve">https://etherscan.io/address/0x1637e4e9941d55703a7a5e7807d6ada3f7dcd61b</t>
   </si>
   <si>
+    <t xml:space="preserve">0xe8929afd47064efd36a7fb51da3f8c5eb40c4cb4</t>
+  </si>
+  <si>
     <t xml:space="preserve">anDOLA</t>
   </si>
   <si>
@@ -338,6 +368,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://etherscan.io/address/0x4dcf7407ae5c07f8681e1659f626e114a7667339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushiswap ETH/DAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xc3d03e4f041fd4cd388c549ee2a29a9e5075882f</t>
   </si>
   <si>
     <t xml:space="preserve">NewCollateralFactor</t>
@@ -1396,6 +1432,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -1428,12 +1470,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1505,7 +1541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1514,15 +1550,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1530,23 +1570,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1578,7 +1618,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1672,7 +1712,7 @@
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1703,16 +1743,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFB66C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A27:D27 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1729,10 +1806,10 @@
     <tabColor rgb="FFDDE8CB"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1745,626 +1822,697 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="76.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>48</v>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>60</v>
+      <c r="A16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>63</v>
+      <c r="A17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>66</v>
+      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>69</v>
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>72</v>
+      <c r="A20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="A23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H28" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <hyperlinks>
@@ -2398,6 +2546,7 @@
     <hyperlink ref="H25" r:id="rId28" display="https://etherscan.io/address/0x64858bac30f4cc223ea07adc09a51acdcd225998"/>
     <hyperlink ref="H26" r:id="rId29" display="https://etherscan.io/address/0x814b02c1ebc9164972d888495927fe1697f0fb4c"/>
     <hyperlink ref="H27" r:id="rId30" display="https://etherscan.io/address/0x4dcf7407ae5c07f8681e1659f626e114a7667339"/>
+    <hyperlink ref="H28" r:id="rId31" display="https://etherscan.io/address/0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2406,7 +2555,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -2419,7 +2568,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="1" sqref="A27:D27 G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2432,126 +2581,126 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>75</v>
+      <c r="A1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>108</v>
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>114</v>
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2573,7 +2722,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="A27:D27 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,146 +2731,147 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>83</v>
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>130</v>
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>133</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2742,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q32" activeCellId="1" sqref="A27:D27 Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2752,46 +2902,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">IF(F2="",E2,G2)</f>
@@ -2800,19 +2950,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>152</v>
+        <v>167</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">IF(F3="",E3,G3)</f>
@@ -2821,19 +2971,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">IF(F4="",E4,G4)</f>
@@ -2842,19 +2992,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>152</v>
+        <v>175</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">IF(F5="",E5,G5)</f>
@@ -2863,19 +3013,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">IF(F6="",E6,G6)</f>
@@ -2884,19 +3034,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>152</v>
+        <v>181</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">IF(F7="",E7,G7)</f>
@@ -2905,19 +3055,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">IF(F8="",E8,G8)</f>
@@ -2926,19 +3076,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>152</v>
+        <v>187</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">IF(F9="",E9,G9)</f>
@@ -2947,19 +3097,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>152</v>
+        <v>190</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">IF(F10="",E10,G10)</f>
@@ -2968,19 +3118,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">IF(F11="",E11,G11)</f>
@@ -2989,19 +3139,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>152</v>
+        <v>196</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">IF(F12="",E12,G12)</f>
@@ -3010,19 +3160,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>152</v>
+        <v>199</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">IF(F13="",E13,G13)</f>
@@ -3031,19 +3181,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>152</v>
+        <v>202</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">IF(F14="",E14,G14)</f>
@@ -3052,19 +3202,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">IF(F15="",E15,G15)</f>
@@ -3073,19 +3223,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>152</v>
+        <v>208</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">IF(F16="",E16,G16)</f>
@@ -3094,19 +3244,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>152</v>
+        <v>212</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">IF(F17="",E17,G17)</f>
@@ -3115,19 +3265,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>152</v>
+        <v>215</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">IF(F18="",E18,G18)</f>
@@ -3136,19 +3286,19 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>152</v>
+        <v>216</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">IF(F19="",E19,G19)</f>
@@ -3157,19 +3307,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>152</v>
+        <v>219</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">IF(F20="",E20,G20)</f>
@@ -3178,19 +3328,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">IF(F21="",E21,G21)</f>
@@ -3199,19 +3349,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>217</v>
+        <v>228</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">IF(F22="",E22,G22)</f>
@@ -3220,19 +3370,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">IF(F23="",E23,G23)</f>
@@ -3241,19 +3391,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>225</v>
+      <c r="E24" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">IF(F24="",E24,G24)</f>
@@ -3262,1586 +3412,1586 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>212</v>
+        <v>240</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>212</v>
+        <v>244</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>152</v>
+        <v>248</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>152</v>
+        <v>249</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>152</v>
+        <v>250</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>42</v>
+        <v>251</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>42</v>
+        <v>252</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>253</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>42</v>
+        <v>254</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>42</v>
+        <v>256</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>152</v>
+        <v>260</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>152</v>
+        <v>263</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>264</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>152</v>
+        <v>267</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>42</v>
+        <v>271</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>42</v>
+        <v>277</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>42</v>
+        <v>280</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>260</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="G43" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>290</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>293</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>296</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>299</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>42</v>
+        <v>302</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>42</v>
+        <v>305</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>42</v>
+        <v>309</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>42</v>
+        <v>313</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>42</v>
+        <v>316</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>42</v>
+        <v>319</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>42</v>
+        <v>322</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>325</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>42</v>
+        <v>328</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>42</v>
+        <v>331</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>334</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>337</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>42</v>
+        <v>340</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>152</v>
+        <v>341</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>152</v>
+        <v>341</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>42</v>
+        <v>344</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>42</v>
+        <v>347</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>42</v>
+        <v>350</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>42</v>
+        <v>353</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>152</v>
+        <v>355</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>152</v>
+        <v>357</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>152</v>
+        <v>358</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>152</v>
+        <v>359</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>152</v>
+        <v>360</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="G72" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="H72" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>152</v>
+        <v>362</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>152</v>
+        <v>363</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>152</v>
+        <v>364</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>152</v>
+        <v>365</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>42</v>
+        <v>368</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>42</v>
+        <v>371</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>42</v>
+        <v>371</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>152</v>
+        <v>375</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>152</v>
+        <v>378</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>152</v>
+        <v>382</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>152</v>
+        <v>386</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>152</v>
+        <v>387</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>152</v>
+        <v>388</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>152</v>
+        <v>391</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>152</v>
+        <v>394</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>152</v>
+        <v>397</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>389</v>
+        <v>404</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>389</v>
+        <v>407</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>389</v>
+        <v>410</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +5020,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="1" sqref="A27:D27 I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4894,7 +5044,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A27:D27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -5,16 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="contracts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="alerts_func" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="alerts_state" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="contracts_deprecated" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="alerts_func_deprecated" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="alerts_state_deprecated" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="triggers" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="contracts_deprecated" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="alerts_func_deprecated" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="alerts_state_deprecated" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">contracts!$A$1:$G$2</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="411">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -94,6 +95,9 @@
     <t xml:space="preserve">[{"inputs":[{"internalType":"contract TimelockInterface","name":"timelock_","type":"address"},{"internalType":"contract InvInterface","name":"inv_","type":"address"},{"internalType":"contract XinvInterface","name":"xinv_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"guardian","type":"address"}],"name":"NewGuardian","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"}],"name":"ProposalCanceled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"},{"indexed":false,"internalType":"address","name":"proposer","type":"address"},{"indexed":false,"internalType":"address[]","name":"targets","type":"address[]"},{"indexed":false,"internalType":"uint256[]","name":"values","type":"uint256[]"},{"indexed":false,"internalType":"string[]","name":"signatures","type":"string[]"},{"indexed":false,"internalType":"bytes[]","name":"calldatas","type":"bytes[]"},{"indexed":false,"internalType":"uint256","name":"startBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"endBlock","type":"uint256"},{"indexed":false,"internalType":"string","name":"description","type":"string"}],"name":"ProposalCreated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"}],"name":"ProposalExecuted","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"id","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"eta","type":"uint256"}],"name":"ProposalQueued","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldThreshold","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newThreshold","type":"uint256"}],"name":"ProposalThresholdUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"proposer","type":"address"},{"indexed":false,"internalType":"bool","name":"value","type":"bool"}],"name":"ProposerWhitelistUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldQuorum","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newQuorum","type":"uint256"}],"name":"QuorumUpdated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"voter","type":"address"},{"indexed":false,"internalType":"uint256","name":"proposalId","type":"uint256"},{"indexed":false,"internalType":"bool","name":"support","type":"bool"},{"indexed":false,"internalType":"uint256","name":"votes","type":"uint256"}],"name":"VoteCast","type":"event"},{"constant":true,"inputs":[],"name":"BALLOT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"DOMAIN_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingAdmin","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"}],"name":"__executeSetTimelockPendingAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newPendingAdmin","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"}],"name":"__queueSetTimelockPendingAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"acceptAdmin","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"cancel","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"bool","name":"support","type":"bool"}],"name":"castVote","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"bool","name":"support","type":"bool"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"castVoteBySig","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"execute","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"getActions","outputs":[{"internalType":"address[]","name":"targets","type":"address[]"},{"internalType":"uint256[]","name":"values","type":"uint256[]"},{"internalType":"string[]","name":"signatures","type":"string[]"},{"internalType":"bytes[]","name":"calldatas","type":"bytes[]"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"},{"internalType":"address","name":"voter","type":"address"}],"name":"getReceipt","outputs":[{"components":[{"internalType":"bool","name":"hasVoted","type":"bool"},{"internalType":"bool","name":"support","type":"bool"},{"internalType":"uint96","name":"votes","type":"uint96"}],"internalType":"struct GovernorMills.Receipt","name":"","type":"tuple"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"guardian","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"inv","outputs":[{"internalType":"contract InvInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"latestProposalIds","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"proposalCount","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"proposalMaxOperations","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"proposalThreshold","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"proposals","outputs":[{"internalType":"uint256","name":"id","type":"uint256"},{"internalType":"address","name":"proposer","type":"address"},{"internalType":"uint256","name":"eta","type":"uint256"},{"internalType":"uint256","name":"startBlock","type":"uint256"},{"internalType":"uint256","name":"endBlock","type":"uint256"},{"internalType":"uint256","name":"forVotes","type":"uint256"},{"internalType":"uint256","name":"againstVotes","type":"uint256"},{"internalType":"bool","name":"canceled","type":"bool"},{"internalType":"bool","name":"executed","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address[]","name":"targets","type":"address[]"},{"internalType":"uint256[]","name":"values","type":"uint256[]"},{"internalType":"string[]","name":"signatures","type":"string[]"},{"internalType":"bytes[]","name":"calldatas","type":"bytes[]"},{"internalType":"string","name":"description","type":"string"}],"name":"propose","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"proposerWhitelist","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"queue","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"quorumVotes","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_newGuardian","type":"address"}],"name":"setGuardian","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"proposalId","type":"uint256"}],"name":"state","outputs":[{"internalType":"enum GovernorMills.ProposalState","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"timelock","outputs":[{"internalType":"contract TimelockInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newQuorum","type":"uint256"}],"name":"updateProposalQuorum","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newThreshold","type":"uint256"}],"name":"updateProposalThreshold","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"proposer","type":"address"},{"internalType":"bool","name":"value","type":"bool"}],"name":"updateProposerWhitelist","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"votingDelay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"votingPeriod","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"pure","type":"function"},{"constant":true,"inputs":[],"name":"xinv","outputs":[{"internalType":"contract XinvInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"xinvExchangeRates","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
   </si>
   <si>
+    <t xml:space="preserve">No proxy</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://etherscan.io/address/0xbeccb6bb0aa4ab551966a7e4b97cec74bb359bf6</t>
   </si>
   <si>
@@ -190,6 +194,9 @@
     <t xml:space="preserve">[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"uint256","name":"rewardPerBlock_","type":"uint256"},{"internalType":"address","name":"rewardTreasury_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldRewardPerBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"NewRewardPerBlock","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldRewardTreasury","type":"address"},{"indexed":false,"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"NewRewardTreasury","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract TimelockEscrow","name":"oldTimelockEscrow","type":"address"},{"indexed":false,"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"NewTimelockEscrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"_setRewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"_setRewardTreasury","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"_setTimelockEscrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"escrow","outputs":[{"internalType":"contract TimelockEscrow","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"rewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"rewardTreasury","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"user","type":"address"}],"name":"syncDelegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
   </si>
   <si>
+    <t xml:space="preserve">[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://etherscan.io/address/0x1637e4e9941d55703a7a5e7807d6ada3f7dcd61b</t>
   </si>
   <si>
@@ -202,7 +209,7 @@
     <t xml:space="preserve">0x7fcb7dac61ee35b3d4a51117a7c58d53f0a8a670</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
+    <t xml:space="preserve">For lending markets use anDOLA ABI</t>
   </si>
   <si>
     <t xml:space="preserve">https://etherscan.io/address/0x7fcb7dac61ee35b3d4a51117a7c58d53f0a8a670</t>
@@ -368,12 +375,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://etherscan.io/address/0x4dcf7407ae5c07f8681e1659f626e114a7667339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sushiswap ETH/DAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xc3d03e4f041fd4cd388c549ee2a29a9e5075882f</t>
   </si>
   <si>
     <t xml:space="preserve">NewCollateralFactor</t>
@@ -1749,7 +1750,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A27:D27 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,10 +1807,10 @@
     <tabColor rgb="FFDDE8CB"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27:D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1819,7 +1820,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="76.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.03"/>
@@ -1868,650 +1869,672 @@
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
@@ -2546,7 +2569,6 @@
     <hyperlink ref="H25" r:id="rId28" display="https://etherscan.io/address/0x64858bac30f4cc223ea07adc09a51acdcd225998"/>
     <hyperlink ref="H26" r:id="rId29" display="https://etherscan.io/address/0x814b02c1ebc9164972d888495927fe1697f0fb4c"/>
     <hyperlink ref="H27" r:id="rId30" display="https://etherscan.io/address/0x4dcf7407ae5c07f8681e1659f626e114a7667339"/>
-    <hyperlink ref="H28" r:id="rId31" display="https://etherscan.io/address/0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2555,7 +2577,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2568,7 +2590,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="1" sqref="A27:D27 G17"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,22 +2604,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,13 +2744,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="A27:D27 F5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
@@ -2739,19 +2761,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,2120 +2909,37 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFE994"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="1" sqref="A27:D27 Q32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.42"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">IF(F2="",E2,G2)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <f aca="false">IF(F3="",E3,G3)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"_singleton","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"stateMutability":"payable","type":"fallback"}]</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <f aca="false">IF(F4="",E4,G4)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <f aca="false">IF(F5="",E5,G5)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <f aca="false">IF(F6="",E6,G6)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <f aca="false">IF(F7="",E7,G7)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <f aca="false">IF(F8="",E8,G8)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <f aca="false">IF(F9="",E9,G9)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="0" t="str">
-        <f aca="false">IF(F10="",E10,G10)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="0" t="str">
-        <f aca="false">IF(F11="",E11,G11)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="0" t="str">
-        <f aca="false">IF(F12="",E12,G12)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <f aca="false">IF(F13="",E13,G13)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="0" t="str">
-        <f aca="false">IF(F14="",E14,G14)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="0" t="str">
-        <f aca="false">IF(F15="",E15,G15)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="0" t="str">
-        <f aca="false">IF(F16="",E16,G16)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H17" s="0" t="str">
-        <f aca="false">IF(F17="",E17,G17)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="0" t="str">
-        <f aca="false">IF(F18="",E18,G18)</f>
-        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="0" t="str">
-        <f aca="false">IF(F19="",E19,G19)</f>
-        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"uint256","name":"rewardPerBlock_","type":"uint256"},{"internalType":"address","name":"rewardTreasury_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldRewardPerBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"NewRewardPerBlock","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldRewardTreasury","type":"address"},{"indexed":false,"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"NewRewardTreasury","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract TimelockEscrow","name":"oldTimelockEscrow","type":"address"},{"indexed":false,"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"NewTimelockEscrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"_setRewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"_setRewardTreasury","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"_setTimelockEscrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"escrow","outputs":[{"internalType":"contract TimelockEscrow","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"rewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"rewardTreasury","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"user","type":"address"}],"name":"syncDelegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="0" t="str">
-        <f aca="false">IF(F20="",E20,G20)</f>
-        <v>[{"inputs":[{"internalType":"contract IYearnVault","name":"vault_","type":"address"},{"internalType":"address","name":"gov_","type":"address"},{"internalType":"uint256","name":"maxLossBpContraction_","type":"uint256"},{"internalType":"uint256","name":"maxLossBpTakeProfit_","type":"uint256"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"contractAll","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amountUnderlying","type":"uint256"}],"name":"contraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"token","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"emergencyWithdraw","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLossBpContraction","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLossBpTakeProfit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"resign","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"newMaxLossBpContraction","type":"uint256"}],"name":"setMaxLossBpContraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"newMaxLossBpTakeProfit","type":"uint256"}],"name":"setMaxLossBpTakeProfit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"takeProfit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"underlying","outputs":[{"internalType":"contract IERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"vault","outputs":[{"internalType":"contract IYearnVault","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <f aca="false">IF(F21="",E21,G21)</f>
-        <v>[{"constant":true,"inputs":[],"name":"mintingFinished","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_value","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_token","type":"address"}],"name":"reclaimToken","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_from","type":"address"},{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"unpause","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_to","type":"address"},{"name":"_amount","type":"uint256"}],"name":"mint","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"value","type":"uint256"}],"name":"burn","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"claimOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"paused","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_subtractedValue","type":"uint256"}],"name":"decreaseApproval","outputs":[{"name":"success","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"_owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"renounceOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"finishMinting","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"pause","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"owner","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_addedValue","type":"uint256"}],"name":"increaseApproval","outputs":[{"name":"success","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"_owner","type":"address"},{"name":"_spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingOwner","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newOwner","type":"address"}],"name":"transferOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"anonymous":false,"inputs":[],"name":"Pause","type":"event"},{"anonymous":false,"inputs":[],"name":"Unpause","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"burner","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[],"name":"MintFinished","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"previousOwner","type":"address"}],"name":"OwnershipRenounced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"previousOwner","type":"address"},{"indexed":true,"name":"newOwner","type":"address"}],"name":"OwnershipTransferred","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Transfer","type":"event"}]</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <f aca="false">IF(F22="",E22,G22)</f>
-        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"guy","type":"address"},{"name":"wad","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"wad","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"wad","type":"uint256"}],"name":"withdraw","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"wad","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"deposit","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[{"name":"","type":"address"},{"name":"","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":true,"name":"guy","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":true,"name":"dst","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"dst","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Deposit","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Withdrawal","type":"event"}]</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <f aca="false">IF(F23="",E23,G23)</f>
-        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"_minter","type":"address"}],"name":"addMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"governance","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"minters","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_minter","type":"address"}],"name":"removeMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_governance","type":"address"}],"name":"setGovernance","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <f aca="false">IF(F24="",E24,G24)</f>
-        <v>[{"inputs":[{"internalType":"contract IERC20","name":"_sushi","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_amount","type":"uint256"}],"name":"enter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_share","type":"uint256"}],"name":"leave","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sushi","outputs":[{"internalType":"contract IERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="E1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>401</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C90" r:id="rId1" display="https://etherscan.io/address/0x4ddc2d193948926d02f9b1fe9e1daa0718270ed5"/>
-    <hyperlink ref="C91" r:id="rId2" display="https://etherscan.io/address/0xf650c3d88d12db855b8bf7d11be6c55a4e07dcc9"/>
-    <hyperlink ref="C92" r:id="rId3" display="https://etherscan.io/address/0x5d3a536E4D6DbD6114cc1Ead35777bAB948E3643"/>
-    <hyperlink ref="C93" r:id="rId4" display="https://etherscan.io/address/0x5d3a536E4D6DbD6114cc1Ead35777bAB948E3643"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5017,14 +2956,2117 @@
     <tabColor rgb="FFFFE994"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="1" sqref="A27:D27 I34"/>
+      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <f aca="false">IF(F2="",E2,G2)</f>
+        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <f aca="false">IF(F3="",E3,G3)</f>
+        <v>[{"inputs":[{"internalType":"address","name":"_singleton","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"stateMutability":"payable","type":"fallback"}]</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <f aca="false">IF(F4="",E4,G4)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <f aca="false">IF(F5="",E5,G5)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <f aca="false">IF(F6="",E6,G6)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <f aca="false">IF(F7="",E7,G7)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <f aca="false">IF(F8="",E8,G8)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <f aca="false">IF(F9="",E9,G9)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <f aca="false">IF(F10="",E10,G10)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <f aca="false">IF(F11="",E11,G11)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <f aca="false">IF(F12="",E12,G12)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <f aca="false">IF(F13="",E13,G13)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <f aca="false">IF(F14="",E14,G14)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <f aca="false">IF(F15="",E15,G15)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"sync","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <f aca="false">IF(F16="",E16,G16)</f>
+        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <f aca="false">IF(F17="",E17,G17)</f>
+        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <f aca="false">IF(F18="",E18,G18)</f>
+        <v>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":false,"internalType":"address","name":"recipient","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"Collect","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint128","name":"amount0","type":"uint128"},{"indexed":false,"internalType":"uint128","name":"amount1","type":"uint128"}],"name":"CollectProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"paid1","type":"uint256"}],"name":"Flash","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextOld","type":"uint16"},{"indexed":false,"internalType":"uint16","name":"observationCardinalityNextNew","type":"uint16"}],"name":"IncreaseObservationCardinalityNext","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Initialize","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"int24","name":"tickLower","type":"int24"},{"indexed":true,"internalType":"int24","name":"tickUpper","type":"int24"},{"indexed":false,"internalType":"uint128","name":"amount","type":"uint128"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint8","name":"feeProtocol0Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1Old","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol0New","type":"uint8"},{"indexed":false,"internalType":"uint8","name":"feeProtocol1New","type":"uint8"}],"name":"SetFeeProtocol","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":true,"internalType":"address","name":"recipient","type":"address"},{"indexed":false,"internalType":"int256","name":"amount0","type":"int256"},{"indexed":false,"internalType":"int256","name":"amount1","type":"int256"},{"indexed":false,"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"indexed":false,"internalType":"uint128","name":"liquidity","type":"uint128"},{"indexed":false,"internalType":"int24","name":"tick","type":"int24"}],"name":"Swap","type":"event"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collect","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint128","name":"amount0Requested","type":"uint128"},{"internalType":"uint128","name":"amount1Requested","type":"uint128"}],"name":"collectProtocol","outputs":[{"internalType":"uint128","name":"amount0","type":"uint128"},{"internalType":"uint128","name":"amount1","type":"uint128"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"fee","outputs":[{"internalType":"uint24","name":"","type":"uint24"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal0X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeGrowthGlobal1X128","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"flash","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"}],"name":"increaseObservationCardinalityNext","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"liquidity","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLiquidityPerTick","outputs":[{"internalType":"uint128","name":"","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"},{"internalType":"uint128","name":"amount","type":"uint128"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"mint","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"observations","outputs":[{"internalType":"uint32","name":"blockTimestamp","type":"uint32"},{"internalType":"int56","name":"tickCumulative","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityCumulativeX128","type":"uint160"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint32[]","name":"secondsAgos","type":"uint32[]"}],"name":"observe","outputs":[{"internalType":"int56[]","name":"tickCumulatives","type":"int56[]"},{"internalType":"uint160[]","name":"secondsPerLiquidityCumulativeX128s","type":"uint160[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"name":"positions","outputs":[{"internalType":"uint128","name":"liquidity","type":"uint128"},{"internalType":"uint256","name":"feeGrowthInside0LastX128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthInside1LastX128","type":"uint256"},{"internalType":"uint128","name":"tokensOwed0","type":"uint128"},{"internalType":"uint128","name":"tokensOwed1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"protocolFees","outputs":[{"internalType":"uint128","name":"token0","type":"uint128"},{"internalType":"uint128","name":"token1","type":"uint128"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint8","name":"feeProtocol0","type":"uint8"},{"internalType":"uint8","name":"feeProtocol1","type":"uint8"}],"name":"setFeeProtocol","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"slot0","outputs":[{"internalType":"uint160","name":"sqrtPriceX96","type":"uint160"},{"internalType":"int24","name":"tick","type":"int24"},{"internalType":"uint16","name":"observationIndex","type":"uint16"},{"internalType":"uint16","name":"observationCardinality","type":"uint16"},{"internalType":"uint16","name":"observationCardinalityNext","type":"uint16"},{"internalType":"uint8","name":"feeProtocol","type":"uint8"},{"internalType":"bool","name":"unlocked","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"tickLower","type":"int24"},{"internalType":"int24","name":"tickUpper","type":"int24"}],"name":"snapshotCumulativesInside","outputs":[{"internalType":"int56","name":"tickCumulativeInside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityInsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsInside","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"bool","name":"zeroForOne","type":"bool"},{"internalType":"int256","name":"amountSpecified","type":"int256"},{"internalType":"uint160","name":"sqrtPriceLimitX96","type":"uint160"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[{"internalType":"int256","name":"amount0","type":"int256"},{"internalType":"int256","name":"amount1","type":"int256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"int16","name":"","type":"int16"}],"name":"tickBitmap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"tickSpacing","outputs":[{"internalType":"int24","name":"","type":"int24"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"int24","name":"","type":"int24"}],"name":"ticks","outputs":[{"internalType":"uint128","name":"liquidityGross","type":"uint128"},{"internalType":"int128","name":"liquidityNet","type":"int128"},{"internalType":"uint256","name":"feeGrowthOutside0X128","type":"uint256"},{"internalType":"uint256","name":"feeGrowthOutside1X128","type":"uint256"},{"internalType":"int56","name":"tickCumulativeOutside","type":"int56"},{"internalType":"uint160","name":"secondsPerLiquidityOutsideX128","type":"uint160"},{"internalType":"uint32","name":"secondsOutside","type":"uint32"},{"internalType":"bool","name":"initialized","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <f aca="false">IF(F19="",E19,G19)</f>
+        <v>[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"uint256","name":"rewardPerBlock_","type":"uint256"},{"internalType":"address","name":"rewardTreasury_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldRewardPerBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"NewRewardPerBlock","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldRewardTreasury","type":"address"},{"indexed":false,"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"NewRewardTreasury","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract TimelockEscrow","name":"oldTimelockEscrow","type":"address"},{"indexed":false,"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"NewTimelockEscrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"_setRewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"_setRewardTreasury","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"_setTimelockEscrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"escrow","outputs":[{"internalType":"contract TimelockEscrow","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"rewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"rewardTreasury","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"user","type":"address"}],"name":"syncDelegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <f aca="false">IF(F20="",E20,G20)</f>
+        <v>[{"inputs":[{"internalType":"contract IYearnVault","name":"vault_","type":"address"},{"internalType":"address","name":"gov_","type":"address"},{"internalType":"uint256","name":"maxLossBpContraction_","type":"uint256"},{"internalType":"uint256","name":"maxLossBpTakeProfit_","type":"uint256"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Contraction","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Expansion","type":"event"},{"inputs":[],"name":"chair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"newChair_","type":"address"}],"name":"changeChair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newGov_","type":"address"}],"name":"changeGov","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"contractAll","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amountUnderlying","type":"uint256"}],"name":"contraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"token","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"emergencyWithdraw","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"expansion","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"gov","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLossBpContraction","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"maxLossBpTakeProfit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"resign","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"newMaxLossBpContraction","type":"uint256"}],"name":"setMaxLossBpContraction","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"newMaxLossBpTakeProfit","type":"uint256"}],"name":"setMaxLossBpTakeProfit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"supply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"takeProfit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"underlying","outputs":[{"internalType":"contract IERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"vault","outputs":[{"internalType":"contract IYearnVault","name":"","type":"address"}],"stateMutability":"view","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <f aca="false">IF(F21="",E21,G21)</f>
+        <v>[{"constant":true,"inputs":[],"name":"mintingFinished","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_value","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_token","type":"address"}],"name":"reclaimToken","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_from","type":"address"},{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"unpause","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_to","type":"address"},{"name":"_amount","type":"uint256"}],"name":"mint","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"value","type":"uint256"}],"name":"burn","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"claimOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"paused","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_subtractedValue","type":"uint256"}],"name":"decreaseApproval","outputs":[{"name":"success","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"_owner","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"renounceOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"finishMinting","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"pause","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"owner","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"_to","type":"address"},{"name":"_value","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"_spender","type":"address"},{"name":"_addedValue","type":"uint256"}],"name":"increaseApproval","outputs":[{"name":"success","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"name":"_owner","type":"address"},{"name":"_spender","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingOwner","outputs":[{"name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"newOwner","type":"address"}],"name":"transferOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"anonymous":false,"inputs":[],"name":"Pause","type":"event"},{"anonymous":false,"inputs":[],"name":"Unpause","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"burner","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"amount","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[],"name":"MintFinished","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"previousOwner","type":"address"}],"name":"OwnershipRenounced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"previousOwner","type":"address"},{"indexed":true,"name":"newOwner","type":"address"}],"name":"OwnershipTransferred","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"owner","type":"address"},{"indexed":true,"name":"spender","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"from","type":"address"},{"indexed":true,"name":"to","type":"address"},{"indexed":false,"name":"value","type":"uint256"}],"name":"Transfer","type":"event"}]</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <f aca="false">IF(F22="",E22,G22)</f>
+        <v>[{"constant":true,"inputs":[],"name":"name","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"guy","type":"address"},{"name":"wad","type":"uint256"}],"name":"approve","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"src","type":"address"},{"name":"dst","type":"address"},{"name":"wad","type":"uint256"}],"name":"transferFrom","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"name":"wad","type":"uint256"}],"name":"withdraw","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"name":"","type":"address"}],"name":"balanceOf","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"name":"dst","type":"address"},{"name":"wad","type":"uint256"}],"name":"transfer","outputs":[{"name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[],"name":"deposit","outputs":[],"payable":true,"stateMutability":"payable","type":"function"},{"constant":true,"inputs":[{"name":"","type":"address"},{"name":"","type":"address"}],"name":"allowance","outputs":[{"name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"payable":true,"stateMutability":"payable","type":"fallback"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":true,"name":"guy","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":true,"name":"dst","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"dst","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Deposit","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"name":"src","type":"address"},{"indexed":false,"name":"wad","type":"uint256"}],"name":"Withdrawal","type":"event"}]</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <f aca="false">IF(F23="",E23,G23)</f>
+        <v>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[{"internalType":"address","name":"_minter","type":"address"}],"name":"addMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"governance","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"minters","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_minter","type":"address"}],"name":"removeMinter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_governance","type":"address"}],"name":"setGovernance","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <f aca="false">IF(F24="",E24,G24)</f>
+        <v>[{"inputs":[{"internalType":"contract IERC20","name":"_sushi","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_amount","type":"uint256"}],"name":"enter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_share","type":"uint256"}],"name":"leave","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sushi","outputs":[{"internalType":"contract IERC20","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C90" r:id="rId1" display="https://etherscan.io/address/0x4ddc2d193948926d02f9b1fe9e1daa0718270ed5"/>
+    <hyperlink ref="C91" r:id="rId2" display="https://etherscan.io/address/0xf650c3d88d12db855b8bf7d11be6c55a4e07dcc9"/>
+    <hyperlink ref="C92" r:id="rId3" display="https://etherscan.io/address/0x5d3a536E4D6DbD6114cc1Ead35777bAB948E3643"/>
+    <hyperlink ref="C93" r:id="rId4" display="https://etherscan.io/address/0x5d3a536E4D6DbD6114cc1Ead35777bAB948E3643"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5044,7 +5086,31 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A27:D27 A1"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFE994"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"uint256","name":"rewardPerBlock_","type":"uint256"},{"internalType":"address","name":"rewardTreasury_","type":"address"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegator","type":"address"},{"indexed":true,"internalType":"address","name":"fromDelegate","type":"address"},{"indexed":true,"internalType":"address","name":"toDelegate","type":"address"}],"name":"DelegateChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"delegate","type":"address"},{"indexed":false,"internalType":"uint256","name":"previousBalance","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newBalance","type":"uint256"}],"name":"DelegateVotesChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldRewardPerBlock","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"NewRewardPerBlock","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldRewardTreasury","type":"address"},{"indexed":false,"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"NewRewardTreasury","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract TimelockEscrow","name":"oldTimelockEscrow","type":"address"},{"indexed":false,"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"NewTimelockEscrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newRewardPerBlock","type":"uint256"}],"name":"_setRewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newRewardTreasury","type":"address"}],"name":"_setRewardTreasury","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract TimelockEscrow","name":"newTimelockEscrow","type":"address"}],"name":"_setTimelockEscrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint32","name":"","type":"uint32"}],"name":"checkpoints","outputs":[{"internalType":"uint32","name":"fromBlock","type":"uint32"},{"internalType":"uint96","name":"votes","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"delegates","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"escrow","outputs":[{"internalType":"contract TimelockEscrow","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getCurrentVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"blockNumber","type":"uint256"}],"name":"getPriorVotes","outputs":[{"internalType":"uint96","name":"","type":"uint96"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"numCheckpoints","outputs":[{"internalType":"uint32","name":"","type":"uint32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"rewardPerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"rewardTreasury","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"user","type":"address"}],"name":"syncDelegate","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
   </si>
   <si>
+    <t xml:space="preserve">https://etherscan.io/address/0x1637e4e9941d55703a7a5e7807d6ada3f7dcd61b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xe8929afd47064efd36a7fb51da3f8c5eb40c4cb4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anDOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x7fcb7dac61ee35b3d4a51117a7c58d53f0a8a670</t>
+  </si>
+  <si>
     <t xml:space="preserve">[{"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"},{"internalType":"address payable","name":"admin_","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"cashPrior","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"interestAccumulated","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"borrowIndex","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"AccrueInterest","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"borrowAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"Borrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"error","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"info","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"detail","type":"uint256"}],"name":"Failure","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"liquidator","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"address","name":"cTokenCollateral","type":"address"},{"indexed":false,"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"LiquidateBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"minter","type":"address"},{"indexed":false,"internalType":"uint256","name":"mintAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"mintTokens","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newAdmin","type":"address"}],"name":"NewAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract ComptrollerInterface","name":"oldComptroller","type":"address"},{"indexed":false,"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"NewComptroller","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"contract InterestRateModel","name":"oldInterestRateModel","type":"address"},{"indexed":false,"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"NewMarketInterestRateModel","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldPendingAdmin","type":"address"},{"indexed":false,"internalType":"address","name":"newPendingAdmin","type":"address"}],"name":"NewPendingAdmin","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"oldReserveFactorMantissa","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"NewReserveFactor","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"redeemer","type":"address"},{"indexed":false,"internalType":"uint256","name":"redeemAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"Redeem","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"payer","type":"address"},{"indexed":false,"internalType":"address","name":"borrower","type":"address"},{"indexed":false,"internalType":"uint256","name":"repayAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"accountBorrows","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"totalBorrows","type":"uint256"}],"name":"RepayBorrow","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"benefactor","type":"address"},{"indexed":false,"internalType":"uint256","name":"addAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"admin","type":"address"},{"indexed":false,"internalType":"uint256","name":"reduceAmount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"newTotalReserves","type":"uint256"}],"name":"ReservesReduced","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":false,"inputs":[],"name":"_acceptAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"addAmount","type":"uint256"}],"name":"_addReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"reduceAmount","type":"uint256"}],"name":"_reduceReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"newComptroller","type":"address"}],"name":"_setComptroller","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract InterestRateModel","name":"newInterestRateModel","type":"address"}],"name":"_setInterestRateModel","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address payable","name":"newPendingAdmin","type":"address"}],"name":"_setPendingAdmin","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"newReserveFactorMantissa","type":"uint256"}],"name":"_setReserveFactor","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"accrualBlockNumber","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"accrueInterest","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"admin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"balanceOfUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"borrowAmount","type":"uint256"}],"name":"borrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"borrowBalanceStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowIndex","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"borrowRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"comptroller","outputs":[{"internalType":"contract ComptrollerInterface","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"exchangeRateCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"exchangeRateStored","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"getAccountSnapshot","outputs":[{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"},{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"getCash","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"underlying_","type":"address"},{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"contract ComptrollerInterface","name":"comptroller_","type":"address"},{"internalType":"contract InterestRateModel","name":"interestRateModel_","type":"address"},{"internalType":"uint256","name":"initialExchangeRateMantissa_","type":"uint256"},{"internalType":"string","name":"name_","type":"string"},{"internalType":"string","name":"symbol_","type":"string"},{"internalType":"uint8","name":"decimals_","type":"uint8"}],"name":"initialize","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"interestRateModel","outputs":[{"internalType":"contract InterestRateModel","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"isCToken","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"},{"internalType":"contract CTokenInterface","name":"cTokenCollateral","type":"address"}],"name":"liquidateBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"mintAmount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"pendingAdmin","outputs":[{"internalType":"address payable","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemTokens","type":"uint256"}],"name":"redeem","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"redeemAmount","type":"uint256"}],"name":"redeemUnderlying","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrow","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"repayAmount","type":"uint256"}],"name":"repayBorrowBehalf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"reserveFactorMantissa","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"liquidator","type":"address"},{"internalType":"address","name":"borrower","type":"address"},{"internalType":"uint256","name":"seizeTokens","type":"uint256"}],"name":"seize","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"supplyRatePerBlock","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalBorrows","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"totalBorrowsCurrent","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"totalReserves","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"src","type":"address"},{"internalType":"address","name":"dst","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://etherscan.io/address/0x1637e4e9941d55703a7a5e7807d6ada3f7dcd61b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xe8929afd47064efd36a7fb51da3f8c5eb40c4cb4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anDOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x7fcb7dac61ee35b3d4a51117a7c58d53f0a8a670</t>
   </si>
   <si>
     <t xml:space="preserve">For lending markets use anDOLA ABI</t>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G11 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1809,8 +1809,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
@@ -2128,13 +2128,13 @@
         <v>59</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,20 +2148,20 @@
         <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,20 +2175,20 @@
         <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,20 +2202,20 @@
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,20 +2229,20 @@
         <v>52</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,20 +2256,20 @@
         <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,20 +2283,20 @@
         <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,20 +2310,20 @@
         <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,20 +2337,20 @@
         <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="G11 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2744,7 +2744,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2913,8 +2913,8 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="G11 G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+      <selection pane="topLeft" activeCell="Q32" activeCellId="1" sqref="G11 Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3578,10 +3578,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>251</v>
@@ -3590,10 +3590,10 @@
         <v>52</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,10 +3610,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3630,10 @@
         <v>52</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,7 +5086,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="1" sqref="G11 I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5110,7 +5110,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/contracts.xlsx
+++ b/contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="412">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">0x5ba61c0a8c4dcccc200cd0ccc40a5725a426d002</t>
   </si>
   <si>
-    <t xml:space="preserve">sushi</t>
+    <t xml:space="preserve">swap</t>
   </si>
   <si>
     <t xml:space="preserve">[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Burn","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1","type":"uint256"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"sender","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount0In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1In","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount0Out","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"amount1Out","type":"uint256"},{"indexed":true,"internalType":"address","name":"to","type":"address"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint112","name":"reserve0","type":"uint112"},{"indexed":false,"internalType":"uint112","name":"reserve1","type":"uint112"}],"name":"Sync","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"MINIMUM_LIQUIDITY","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"burn","outputs":[{"internalType":"uint256","name":"amount0","type":"uint256"},{"internalType":"uint256","name":"amount1","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"factory","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"getReserves","outputs":[{"internalType":"uint112","name":"_reserve0","type":"uint112"},{"internalType":"uint112","name":"_reserve1","type":"uint112"},{"internalType":"uint32","name":"_blockTimestampLast","type":"uint32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_token0","type":"address"},{"internalType":"address","name":"_token1","type":"address"}],"name":"initialize","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"kLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"mint","outputs":[{"internalType":"uint256","name":"liquidity","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"price0CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"price1CumulativeLast","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"}],"name":"skim","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount0Out","type":"uint256"},{"internalType":"uint256","name":"amount1Out","type":"uint256"},{"internalType":"address","name":"to","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"sync","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"token0","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"token1","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</t>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t xml:space="preserve">getReserves()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sushi</t>
   </si>
   <si>
     <t xml:space="preserve">Sushiswap WBTC/ibBTC</t>
@@ -1750,7 +1753,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="G11 B5"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1807,15 +1810,15 @@
     <tabColor rgb="FFDDE8CB"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.15"/>
@@ -2536,6 +2539,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <hyperlinks>
@@ -2589,8 +2593,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="G11 F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2599,7 +2603,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +2747,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G11 A1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2914,7 +2917,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="G11 G25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2933,7 +2936,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>95</v>
@@ -2958,8 +2961,8 @@
   </sheetPr>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="1" sqref="G11 Q32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2995,16 +2998,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>88</v>
@@ -3016,19 +3019,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">IF(F3="",E3,G3)</f>
@@ -3037,19 +3040,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">IF(F4="",E4,G4)</f>
@@ -3058,19 +3061,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">IF(F5="",E5,G5)</f>
@@ -3079,19 +3082,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">IF(F6="",E6,G6)</f>
@@ -3100,19 +3103,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">IF(F7="",E7,G7)</f>
@@ -3121,19 +3124,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">IF(F8="",E8,G8)</f>
@@ -3142,19 +3145,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">IF(F9="",E9,G9)</f>
@@ -3163,19 +3166,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">IF(F10="",E10,G10)</f>
@@ -3184,19 +3187,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">IF(F11="",E11,G11)</f>
@@ -3205,19 +3208,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">IF(F12="",E12,G12)</f>
@@ -3226,19 +3229,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">IF(F13="",E13,G13)</f>
@@ -3247,19 +3250,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">IF(F14="",E14,G14)</f>
@@ -3268,19 +3271,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">IF(F15="",E15,G15)</f>
@@ -3289,19 +3292,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">IF(F16="",E16,G16)</f>
@@ -3310,19 +3313,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">IF(F17="",E17,G17)</f>
@@ -3331,19 +3334,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">IF(F18="",E18,G18)</f>
@@ -3358,10 +3361,10 @@
         <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>53</v>
@@ -3373,19 +3376,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">IF(F20="",E20,G20)</f>
@@ -3394,19 +3397,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">IF(F21="",E21,G21)</f>
@@ -3415,19 +3418,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">IF(F22="",E22,G22)</f>
@@ -3436,19 +3439,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">IF(F23="",E23,G23)</f>
@@ -3457,19 +3460,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">IF(F24="",E24,G24)</f>
@@ -3478,62 +3481,62 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3547,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>31</v>
@@ -3564,10 +3567,10 @@
         <v>111</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>112</v>
@@ -3584,7 +3587,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>52</v>
@@ -3604,7 +3607,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>52</v>
@@ -3624,7 +3627,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>52</v>
@@ -3644,16 +3647,16 @@
         <v>68</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,56 +3667,56 @@
         <v>71</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,7 +3727,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>25</v>
@@ -3738,594 +3741,594 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>